--- a/outputs/3_effective_rates_lake.xlsx
+++ b/outputs/3_effective_rates_lake.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1881" uniqueCount="1881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1870" uniqueCount="1870">
   <si>
     <t xml:space="preserve">tax_code</t>
   </si>
@@ -4980,39 +4980,6 @@
   </si>
   <si>
     <t xml:space="preserve">tbl28_0490493020042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESD_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESD_112/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESD_112/108BD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESD_112/7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HSD_157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUN_ARLHT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUN_LKBLF*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUN_NOCHI*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUN_NRBRK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUN_PALTN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRK_ARLHT</t>
   </si>
   <si>
     <t xml:space="preserve">Special Road Improvement</t>
@@ -17621,10 +17588,10 @@
         <v>1059</v>
       </c>
       <c r="B1058" t="n">
-        <v>0.0154639585151506</v>
+        <v>0.0247539757653041</v>
       </c>
       <c r="C1058" t="n">
-        <v>0.0158934612999376</v>
+        <v>0.0240392768833653</v>
       </c>
     </row>
     <row r="1059">
@@ -17632,10 +17599,10 @@
         <v>1060</v>
       </c>
       <c r="B1059" t="n">
-        <v>0.0291486630166456</v>
+        <v>0.0242787767897975</v>
       </c>
       <c r="C1059" t="n">
-        <v>0.0317592701587897</v>
+        <v>0.0235701079990704</v>
       </c>
     </row>
     <row r="1060">
@@ -17654,10 +17621,10 @@
         <v>1062</v>
       </c>
       <c r="B1061" t="n">
-        <v>0.0154639585151506</v>
+        <v>0.0247539757653041</v>
       </c>
       <c r="C1061" t="n">
-        <v>0.0158934612999376</v>
+        <v>0.0240392768833653</v>
       </c>
     </row>
     <row r="1062">
@@ -17676,10 +17643,10 @@
         <v>1064</v>
       </c>
       <c r="B1063" t="n">
-        <v>0.0291486630166456</v>
+        <v>0.0242787767897975</v>
       </c>
       <c r="C1063" t="n">
-        <v>0.0317592701587897</v>
+        <v>0.0235701079990704</v>
       </c>
     </row>
     <row r="1064">
@@ -17742,10 +17709,10 @@
         <v>1070</v>
       </c>
       <c r="B1069" t="n">
-        <v>0.0293825210472743</v>
+        <v>0.0245126348204262</v>
       </c>
       <c r="C1069" t="n">
-        <v>0.0319067204305646</v>
+        <v>0.0237175582708453</v>
       </c>
     </row>
     <row r="1070">
@@ -18105,10 +18072,10 @@
         <v>1103</v>
       </c>
       <c r="B1102" t="n">
-        <v>0.0296238619921522</v>
+        <v>0.0247539757653041</v>
       </c>
       <c r="C1102" t="n">
-        <v>0.0322284390430846</v>
+        <v>0.0240392768833653</v>
       </c>
     </row>
     <row r="1103">
@@ -18116,10 +18083,10 @@
         <v>1104</v>
       </c>
       <c r="B1103" t="n">
-        <v>0.0296238619921522</v>
+        <v>0.0247539757653041</v>
       </c>
       <c r="C1103" t="n">
-        <v>0.0322284390430846</v>
+        <v>0.0240392768833653</v>
       </c>
     </row>
     <row r="1104">
@@ -18127,10 +18094,10 @@
         <v>1105</v>
       </c>
       <c r="B1104" t="n">
-        <v>0.0296238619921522</v>
+        <v>0.0247539757653041</v>
       </c>
       <c r="C1104" t="n">
-        <v>0.0322284390430846</v>
+        <v>0.0240392768833653</v>
       </c>
     </row>
     <row r="1105">
@@ -18138,10 +18105,10 @@
         <v>1106</v>
       </c>
       <c r="B1105" t="n">
-        <v>0.0296238619921522</v>
+        <v>0.0247539757653041</v>
       </c>
       <c r="C1105" t="n">
-        <v>0.0322284390430846</v>
+        <v>0.0240392768833653</v>
       </c>
     </row>
     <row r="1106">
@@ -18149,10 +18116,10 @@
         <v>1107</v>
       </c>
       <c r="B1106" t="n">
-        <v>0.0296238619921522</v>
+        <v>0.0247539757653041</v>
       </c>
       <c r="C1106" t="n">
-        <v>0.0322284390430846</v>
+        <v>0.0240392768833653</v>
       </c>
     </row>
     <row r="1107">
@@ -18160,10 +18127,10 @@
         <v>1108</v>
       </c>
       <c r="B1107" t="n">
-        <v>0.0296238619921522</v>
+        <v>0.0247539757653041</v>
       </c>
       <c r="C1107" t="n">
-        <v>0.0322284390430846</v>
+        <v>0.0240392768833653</v>
       </c>
     </row>
     <row r="1108">
@@ -18171,10 +18138,10 @@
         <v>1109</v>
       </c>
       <c r="B1108" t="n">
-        <v>0.0296238619921522</v>
+        <v>0.0247539757653041</v>
       </c>
       <c r="C1108" t="n">
-        <v>0.0322284390430846</v>
+        <v>0.0240392768833653</v>
       </c>
     </row>
     <row r="1109">
@@ -18182,10 +18149,10 @@
         <v>1110</v>
       </c>
       <c r="B1109" t="n">
-        <v>0.0296238619921522</v>
+        <v>0.0247539757653041</v>
       </c>
       <c r="C1109" t="n">
-        <v>0.0322284390430846</v>
+        <v>0.0240392768833653</v>
       </c>
     </row>
     <row r="1110">
@@ -18369,10 +18336,10 @@
         <v>1127</v>
       </c>
       <c r="B1126" t="n">
-        <v>0.0296238619921522</v>
+        <v>0.0247539757653041</v>
       </c>
       <c r="C1126" t="n">
-        <v>0.0322284390430846</v>
+        <v>0.0240392768833653</v>
       </c>
     </row>
     <row r="1127">
@@ -18380,10 +18347,10 @@
         <v>1128</v>
       </c>
       <c r="B1127" t="n">
-        <v>0.0291492709988433</v>
+        <v>0.0242793847719952</v>
       </c>
       <c r="C1127" t="n">
-        <v>0.0307769100212829</v>
+        <v>0.0225877478615636</v>
       </c>
     </row>
     <row r="1128">
@@ -18402,10 +18369,10 @@
         <v>1130</v>
       </c>
       <c r="B1129" t="n">
-        <v>0.02911287128113</v>
+        <v>0.0242429850542819</v>
       </c>
       <c r="C1129" t="n">
-        <v>0.0307420279446611</v>
+        <v>0.0225528657849418</v>
       </c>
     </row>
     <row r="1130">
@@ -18413,10 +18380,10 @@
         <v>1131</v>
       </c>
       <c r="B1130" t="n">
-        <v>0.0152473274063812</v>
+        <v>0.0245373446565348</v>
       </c>
       <c r="C1130" t="n">
-        <v>0.0151559408485992</v>
+        <v>0.023301756432027</v>
       </c>
     </row>
     <row r="1131">
@@ -18435,10 +18402,10 @@
         <v>1133</v>
       </c>
       <c r="B1132" t="n">
-        <v>0.0294072308833829</v>
+        <v>0.0245373446565348</v>
       </c>
       <c r="C1132" t="n">
-        <v>0.0314909185917462</v>
+        <v>0.023301756432027</v>
       </c>
     </row>
     <row r="1133">
@@ -18457,10 +18424,10 @@
         <v>1135</v>
       </c>
       <c r="B1134" t="n">
-        <v>0.0152473274063812</v>
+        <v>0.0245373446565348</v>
       </c>
       <c r="C1134" t="n">
-        <v>0.0151559408485992</v>
+        <v>0.023301756432027</v>
       </c>
     </row>
     <row r="1135">
@@ -18468,10 +18435,10 @@
         <v>1136</v>
       </c>
       <c r="B1135" t="n">
-        <v>0.0293669567778059</v>
+        <v>0.0244970705509578</v>
       </c>
       <c r="C1135" t="n">
-        <v>0.0310810663277048</v>
+        <v>0.0228919041679856</v>
       </c>
     </row>
     <row r="1136">
@@ -18479,10 +18446,10 @@
         <v>1137</v>
       </c>
       <c r="B1136" t="n">
-        <v>0.027661977828231</v>
+        <v>0.0227920916013829</v>
       </c>
       <c r="C1136" t="n">
-        <v>0.0299279963332821</v>
+        <v>0.0217388341735628</v>
       </c>
     </row>
     <row r="1137">
@@ -18512,10 +18479,10 @@
         <v>1140</v>
       </c>
       <c r="B1139" t="n">
-        <v>0.0251977830115971</v>
+        <v>0.020327896784749</v>
       </c>
       <c r="C1139" t="n">
-        <v>0.0274199216616823</v>
+        <v>0.019230759501963</v>
       </c>
     </row>
     <row r="1140">
@@ -18523,10 +18490,10 @@
         <v>1141</v>
       </c>
       <c r="B1140" t="n">
-        <v>0.0293708311656696</v>
+        <v>0.0245009449388215</v>
       </c>
       <c r="C1140" t="n">
-        <v>0.0314560365151244</v>
+        <v>0.0232668743554051</v>
       </c>
     </row>
     <row r="1141">
@@ -18545,10 +18512,10 @@
         <v>1143</v>
       </c>
       <c r="B1142" t="n">
-        <v>0.0294072308833829</v>
+        <v>0.0245373446565348</v>
       </c>
       <c r="C1142" t="n">
-        <v>0.0314909185917462</v>
+        <v>0.023301756432027</v>
       </c>
     </row>
     <row r="1143">
@@ -18556,10 +18523,10 @@
         <v>1144</v>
       </c>
       <c r="B1143" t="n">
-        <v>0.0291492709988433</v>
+        <v>0.0242793847719952</v>
       </c>
       <c r="C1143" t="n">
-        <v>0.0307769100212829</v>
+        <v>0.0225877478615636</v>
       </c>
     </row>
     <row r="1144">
@@ -18578,10 +18545,10 @@
         <v>1146</v>
       </c>
       <c r="B1145" t="n">
-        <v>0.0289320319078762</v>
+        <v>0.0240621456810282</v>
       </c>
       <c r="C1145" t="n">
-        <v>0.0310217497074514</v>
+        <v>0.0228325875477321</v>
       </c>
     </row>
     <row r="1146">
@@ -18589,10 +18556,10 @@
         <v>1147</v>
       </c>
       <c r="B1146" t="n">
-        <v>0.0312072584194392</v>
+        <v>0.0263373721925911</v>
       </c>
       <c r="C1146" t="n">
-        <v>0.0333869732060961</v>
+        <v>0.0251978110463768</v>
       </c>
     </row>
     <row r="1147">
@@ -18600,10 +18567,10 @@
         <v>1148</v>
       </c>
       <c r="B1147" t="n">
-        <v>0.0294072308833829</v>
+        <v>0.0245373446565348</v>
       </c>
       <c r="C1147" t="n">
-        <v>0.0314909185917462</v>
+        <v>0.023301756432027</v>
       </c>
     </row>
     <row r="1148">
@@ -18611,10 +18578,10 @@
         <v>1149</v>
       </c>
       <c r="B1148" t="n">
-        <v>0.0333385583973097</v>
+        <v>0.0284686721704616</v>
       </c>
       <c r="C1148" t="n">
-        <v>0.0369646649675687</v>
+        <v>0.0287755028078494</v>
       </c>
     </row>
     <row r="1149">
@@ -18622,10 +18589,10 @@
         <v>1150</v>
       </c>
       <c r="B1149" t="n">
-        <v>0.0333385583973097</v>
+        <v>0.0284686721704616</v>
       </c>
       <c r="C1149" t="n">
-        <v>0.0369646649675687</v>
+        <v>0.0287755028078494</v>
       </c>
     </row>
     <row r="1150">
@@ -18633,10 +18600,10 @@
         <v>1151</v>
       </c>
       <c r="B1150" t="n">
-        <v>0.0294072308833829</v>
+        <v>0.0245373446565348</v>
       </c>
       <c r="C1150" t="n">
-        <v>0.0319618487228634</v>
+        <v>0.0237726865631441</v>
       </c>
     </row>
     <row r="1151">
@@ -18655,10 +18622,10 @@
         <v>1153</v>
       </c>
       <c r="B1152" t="n">
-        <v>0.0156622023053744</v>
+        <v>0.024952219555528</v>
       </c>
       <c r="C1152" t="n">
-        <v>0.0155775647804481</v>
+        <v>0.0237233803638759</v>
       </c>
     </row>
     <row r="1153">
@@ -18666,10 +18633,10 @@
         <v>1154</v>
       </c>
       <c r="B1153" t="n">
-        <v>0.0298221057823761</v>
+        <v>0.024952219555528</v>
       </c>
       <c r="C1153" t="n">
-        <v>0.0319125425235952</v>
+        <v>0.0237233803638759</v>
       </c>
     </row>
     <row r="1154">
@@ -18677,10 +18644,10 @@
         <v>1155</v>
       </c>
       <c r="B1154" t="n">
-        <v>0.0298221057823761</v>
+        <v>0.024952219555528</v>
       </c>
       <c r="C1154" t="n">
-        <v>0.0319125425235952</v>
+        <v>0.0237233803638759</v>
       </c>
     </row>
     <row r="1155">
@@ -18688,10 +18655,10 @@
         <v>1156</v>
       </c>
       <c r="B1155" t="n">
-        <v>0.0298221057823761</v>
+        <v>0.024952219555528</v>
       </c>
       <c r="C1155" t="n">
-        <v>0.0319125425235952</v>
+        <v>0.0237233803638759</v>
       </c>
     </row>
   </sheetData>
@@ -27991,22 +27958,22 @@
         <v>1535</v>
       </c>
       <c r="C176" t="n">
-        <v>3466053</v>
+        <v>3468078</v>
       </c>
       <c r="D176" t="n">
-        <v>1093006</v>
+        <v>1487557</v>
       </c>
       <c r="E176" t="n">
-        <v>49589</v>
+        <v>101038</v>
       </c>
       <c r="F176" t="n">
-        <v>780</v>
+        <v>998</v>
       </c>
       <c r="G176" t="n">
-        <v>411011078</v>
+        <v>824913553</v>
       </c>
       <c r="H176" t="n">
-        <v>4603143370</v>
+        <v>7016140450</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -28030,10 +27997,10 @@
         <v>1536</v>
       </c>
       <c r="P176" t="n">
-        <v>0.0141599034770016</v>
+        <v>0.00929001725015354</v>
       </c>
       <c r="Q176" t="n">
-        <v>0.016334977743147</v>
+        <v>0.00814581558342776</v>
       </c>
     </row>
     <row r="177">
@@ -31208,509 +31175,509 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1198</v>
+        <v>1655</v>
       </c>
       <c r="B2" t="s">
-        <v>1655</v>
-      </c>
-      <c r="C2"/>
-      <c r="D2"/>
+        <v>1656</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5654420</v>
+      </c>
+      <c r="D2" t="n">
+        <v>157840</v>
+      </c>
       <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
+        <v>48312</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>88400993</v>
+      </c>
+      <c r="H2" t="n">
+        <v>934500567</v>
+      </c>
       <c r="I2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1198</v>
+        <v>1655</v>
       </c>
       <c r="B3" t="s">
-        <v>1656</v>
-      </c>
-      <c r="C3"/>
-      <c r="D3"/>
+        <v>1657</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1818583</v>
+      </c>
+      <c r="D3" t="n">
+        <v>91600792</v>
+      </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>187214</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>94328374</v>
+        <v>266385820</v>
       </c>
       <c r="H3" t="n">
-        <v>526729311</v>
+        <v>692323533</v>
       </c>
       <c r="I3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1198</v>
+        <v>1655</v>
       </c>
       <c r="B4" t="s">
-        <v>1657</v>
-      </c>
-      <c r="C4"/>
-      <c r="D4"/>
+        <v>1658</v>
+      </c>
+      <c r="C4" t="n">
+        <v>30540231</v>
+      </c>
+      <c r="D4" t="n">
+        <v>30473701</v>
+      </c>
       <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4"/>
+        <v>511</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
       <c r="G4" t="n">
-        <v>113</v>
-      </c>
-      <c r="H4"/>
+        <v>205519364</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2145222067</v>
+      </c>
       <c r="I4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1198</v>
+        <v>1655</v>
       </c>
       <c r="B5" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="C5" t="n">
-        <v>2025</v>
+        <v>25046271</v>
       </c>
       <c r="D5" t="n">
-        <v>394551</v>
+        <v>35267685</v>
       </c>
       <c r="E5" t="n">
-        <v>51449</v>
+        <v>26307</v>
       </c>
       <c r="F5" t="n">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>319573988</v>
+        <v>198179219</v>
       </c>
       <c r="H5" t="n">
-        <v>1886267769</v>
+        <v>2727571728</v>
       </c>
       <c r="I5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1201</v>
+        <v>1655</v>
       </c>
       <c r="B6" t="s">
-        <v>1659</v>
-      </c>
-      <c r="C6"/>
-      <c r="D6"/>
+        <v>1660</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5581025</v>
+      </c>
+      <c r="D6" t="n">
+        <v>74521711</v>
+      </c>
       <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
+        <v>8540</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>217285560</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1893781259</v>
+      </c>
       <c r="I6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1207</v>
+        <v>1655</v>
       </c>
       <c r="B7" t="s">
-        <v>1660</v>
-      </c>
-      <c r="C7"/>
-      <c r="D7"/>
+        <v>1661</v>
+      </c>
+      <c r="C7" t="n">
+        <v>13378795</v>
+      </c>
+      <c r="D7" t="n">
+        <v>84682577</v>
+      </c>
       <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
+        <v>167966</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>501708283</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3192238819</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2510</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1207</v>
+        <v>1655</v>
       </c>
       <c r="B8" t="s">
-        <v>1661</v>
-      </c>
-      <c r="C8"/>
-      <c r="D8"/>
+        <v>1662</v>
+      </c>
+      <c r="C8" t="n">
+        <v>317849</v>
+      </c>
+      <c r="D8" t="n">
+        <v>143740914</v>
+      </c>
       <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8"/>
-      <c r="G8"/>
+        <v>305351</v>
+      </c>
+      <c r="F8" t="n">
+        <v>151795</v>
+      </c>
+      <c r="G8" t="n">
+        <v>863044817</v>
+      </c>
       <c r="H8" t="n">
-        <v>72180901</v>
+        <v>1947206925</v>
       </c>
       <c r="I8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1207</v>
+        <v>1655</v>
       </c>
       <c r="B9" t="s">
-        <v>1662</v>
-      </c>
-      <c r="C9"/>
-      <c r="D9"/>
+        <v>1663</v>
+      </c>
+      <c r="C9" t="n">
+        <v>45049355</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1218348391</v>
+      </c>
       <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9"/>
-      <c r="G9"/>
+        <v>198301</v>
+      </c>
+      <c r="F9" t="n">
+        <v>320010</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1821560720</v>
+      </c>
       <c r="H9" t="n">
-        <v>45005871</v>
+        <v>6654120675</v>
       </c>
       <c r="I9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1207</v>
+        <v>1655</v>
       </c>
       <c r="B10" t="s">
-        <v>1663</v>
-      </c>
-      <c r="C10"/>
-      <c r="D10"/>
+        <v>1664</v>
+      </c>
+      <c r="C10" t="n">
+        <v>34085857</v>
+      </c>
+      <c r="D10" t="n">
+        <v>162214036</v>
+      </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>238461</v>
       </c>
       <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
+      <c r="G10" t="n">
+        <v>263569951</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1693486664</v>
+      </c>
       <c r="I10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1207</v>
+        <v>1655</v>
       </c>
       <c r="B11" t="s">
-        <v>1664</v>
-      </c>
-      <c r="C11"/>
-      <c r="D11"/>
+        <v>1665</v>
+      </c>
+      <c r="C11" t="n">
+        <v>28100654</v>
+      </c>
+      <c r="D11" t="n">
+        <v>79600257</v>
+      </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
-      <c r="F11"/>
-      <c r="G11"/>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>369017658</v>
+      </c>
       <c r="H11" t="n">
-        <v>19</v>
+        <v>2898457304</v>
       </c>
       <c r="I11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1184</v>
+        <v>1655</v>
       </c>
       <c r="B12" t="s">
-        <v>1665</v>
-      </c>
-      <c r="C12"/>
-      <c r="D12"/>
+        <v>1666</v>
+      </c>
+      <c r="C12" t="n">
+        <v>31726830</v>
+      </c>
+      <c r="D12" t="n">
+        <v>342694533</v>
+      </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
+      <c r="F12" t="n">
+        <v>6688</v>
+      </c>
+      <c r="G12" t="n">
+        <v>935138248</v>
+      </c>
+      <c r="H12" t="n">
+        <v>6406755878</v>
+      </c>
       <c r="I12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1666</v>
+        <v>1246</v>
       </c>
       <c r="B13" t="s">
         <v>1667</v>
       </c>
       <c r="C13" t="n">
-        <v>5654420</v>
-      </c>
-      <c r="D13" t="n">
-        <v>157840</v>
-      </c>
+        <v>33185</v>
+      </c>
+      <c r="D13"/>
       <c r="E13" t="n">
-        <v>48312</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>88400993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F13"/>
+      <c r="G13"/>
       <c r="H13" t="n">
-        <v>934500567</v>
+        <v>81437528</v>
       </c>
       <c r="I13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1666</v>
+        <v>1246</v>
       </c>
       <c r="B14" t="s">
         <v>1668</v>
       </c>
       <c r="C14" t="n">
-        <v>1818583</v>
-      </c>
-      <c r="D14" t="n">
-        <v>91600792</v>
-      </c>
+        <v>8239</v>
+      </c>
+      <c r="D14"/>
       <c r="E14" t="n">
-        <v>187214</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>266385820</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F14"/>
+      <c r="G14"/>
       <c r="H14" t="n">
-        <v>692323533</v>
+        <v>93306660</v>
       </c>
       <c r="I14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1666</v>
+        <v>1246</v>
       </c>
       <c r="B15" t="s">
         <v>1669</v>
       </c>
-      <c r="C15" t="n">
-        <v>30540231</v>
-      </c>
-      <c r="D15" t="n">
-        <v>30473701</v>
-      </c>
+      <c r="C15"/>
+      <c r="D15"/>
       <c r="E15" t="n">
-        <v>511</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>205519364</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F15"/>
+      <c r="G15"/>
       <c r="H15" t="n">
-        <v>2145222067</v>
+        <v>39220029</v>
       </c>
       <c r="I15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1666</v>
+        <v>1246</v>
       </c>
       <c r="B16" t="s">
         <v>1670</v>
       </c>
-      <c r="C16" t="n">
-        <v>25046271</v>
-      </c>
-      <c r="D16" t="n">
-        <v>35267685</v>
-      </c>
+      <c r="C16"/>
+      <c r="D16"/>
       <c r="E16" t="n">
-        <v>26307</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>198179219</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2727571728</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
       <c r="I16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1666</v>
+        <v>1246</v>
       </c>
       <c r="B17" t="s">
         <v>1671</v>
       </c>
-      <c r="C17" t="n">
-        <v>5581025</v>
-      </c>
-      <c r="D17" t="n">
-        <v>74521711</v>
-      </c>
+      <c r="C17"/>
+      <c r="D17"/>
       <c r="E17" t="n">
-        <v>8540</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F17"/>
       <c r="G17" t="n">
-        <v>217285560</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1893781259</v>
-      </c>
+        <v>18644</v>
+      </c>
+      <c r="H17"/>
       <c r="I17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>1666</v>
+        <v>1246</v>
       </c>
       <c r="B18" t="s">
         <v>1672</v>
       </c>
-      <c r="C18" t="n">
-        <v>13378795</v>
-      </c>
-      <c r="D18" t="n">
-        <v>84682577</v>
-      </c>
+      <c r="C18"/>
+      <c r="D18"/>
       <c r="E18" t="n">
-        <v>167966</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>501708283</v>
-      </c>
-      <c r="H18" t="n">
-        <v>3192238819</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2510</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>1666</v>
+        <v>1246</v>
       </c>
       <c r="B19" t="s">
         <v>1673</v>
       </c>
-      <c r="C19" t="n">
-        <v>317849</v>
-      </c>
-      <c r="D19" t="n">
-        <v>143740914</v>
-      </c>
-      <c r="E19" t="n">
-        <v>305351</v>
-      </c>
-      <c r="F19" t="n">
-        <v>151795</v>
-      </c>
-      <c r="G19" t="n">
-        <v>863044817</v>
-      </c>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
       <c r="H19" t="n">
-        <v>1947206925</v>
+        <v>7076114</v>
       </c>
       <c r="I19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>1666</v>
+        <v>1246</v>
       </c>
       <c r="B20" t="s">
         <v>1674</v>
       </c>
-      <c r="C20" t="n">
-        <v>45049355</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1218348391</v>
-      </c>
-      <c r="E20" t="n">
-        <v>198301</v>
-      </c>
-      <c r="F20" t="n">
-        <v>320010</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1821560720</v>
-      </c>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
       <c r="H20" t="n">
-        <v>6654120675</v>
+        <v>2896509</v>
       </c>
       <c r="I20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>1666</v>
+        <v>1246</v>
       </c>
       <c r="B21" t="s">
         <v>1675</v>
       </c>
-      <c r="C21" t="n">
-        <v>34085857</v>
-      </c>
-      <c r="D21" t="n">
-        <v>162214036</v>
-      </c>
+      <c r="C21"/>
+      <c r="D21"/>
       <c r="E21" t="n">
-        <v>238461</v>
+        <v>0</v>
       </c>
       <c r="F21"/>
       <c r="G21" t="n">
-        <v>263569951</v>
+        <v>57491732</v>
       </c>
       <c r="H21" t="n">
-        <v>1693486664</v>
+        <v>22989563</v>
       </c>
       <c r="I21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>1666</v>
+        <v>1246</v>
       </c>
       <c r="B22" t="s">
         <v>1676</v>
       </c>
       <c r="C22" t="n">
-        <v>28100654</v>
-      </c>
-      <c r="D22" t="n">
-        <v>79600257</v>
-      </c>
+        <v>809630</v>
+      </c>
+      <c r="D22"/>
       <c r="E22" t="n">
         <v>0</v>
       </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>369017658</v>
-      </c>
+      <c r="F22"/>
+      <c r="G22"/>
       <c r="H22" t="n">
-        <v>2898457304</v>
+        <v>114948983</v>
       </c>
       <c r="I22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>1666</v>
+        <v>1246</v>
       </c>
       <c r="B23" t="s">
         <v>1677</v>
       </c>
-      <c r="C23" t="n">
-        <v>31726830</v>
-      </c>
-      <c r="D23" t="n">
-        <v>342694533</v>
-      </c>
+      <c r="C23"/>
+      <c r="D23"/>
       <c r="E23" t="n">
         <v>0</v>
       </c>
-      <c r="F23" t="n">
-        <v>6688</v>
-      </c>
+      <c r="F23"/>
       <c r="G23" t="n">
-        <v>935138248</v>
+        <v>116151055</v>
       </c>
       <c r="H23" t="n">
-        <v>6406755878</v>
+        <v>11</v>
       </c>
       <c r="I23"/>
     </row>
@@ -31721,17 +31688,13 @@
       <c r="B24" t="s">
         <v>1678</v>
       </c>
-      <c r="C24" t="n">
-        <v>33185</v>
-      </c>
+      <c r="C24"/>
       <c r="D24"/>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
+      <c r="E24"/>
       <c r="F24"/>
       <c r="G24"/>
       <c r="H24" t="n">
-        <v>81437528</v>
+        <v>6334691</v>
       </c>
       <c r="I24"/>
     </row>
@@ -31742,9 +31705,7 @@
       <c r="B25" t="s">
         <v>1679</v>
       </c>
-      <c r="C25" t="n">
-        <v>8239</v>
-      </c>
+      <c r="C25"/>
       <c r="D25"/>
       <c r="E25" t="n">
         <v>0</v>
@@ -31752,7 +31713,7 @@
       <c r="F25"/>
       <c r="G25"/>
       <c r="H25" t="n">
-        <v>93306660</v>
+        <v>35943706</v>
       </c>
       <c r="I25"/>
     </row>
@@ -31769,9 +31730,11 @@
         <v>0</v>
       </c>
       <c r="F26"/>
-      <c r="G26"/>
+      <c r="G26" t="n">
+        <v>136579</v>
+      </c>
       <c r="H26" t="n">
-        <v>39220029</v>
+        <v>2833005</v>
       </c>
       <c r="I26"/>
     </row>
@@ -31788,8 +31751,12 @@
         <v>0</v>
       </c>
       <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
+      <c r="G27" t="n">
+        <v>64275001</v>
+      </c>
+      <c r="H27" t="n">
+        <v>12</v>
+      </c>
       <c r="I27"/>
     </row>
     <row r="28">
@@ -31806,7 +31773,7 @@
       </c>
       <c r="F28"/>
       <c r="G28" t="n">
-        <v>18644</v>
+        <v>5485166</v>
       </c>
       <c r="H28"/>
       <c r="I28"/>
@@ -31824,8 +31791,12 @@
         <v>0</v>
       </c>
       <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
+      <c r="G29" t="n">
+        <v>64275001</v>
+      </c>
+      <c r="H29" t="n">
+        <v>12</v>
+      </c>
       <c r="I29"/>
     </row>
     <row r="30">
@@ -31837,12 +31808,14 @@
       </c>
       <c r="C30"/>
       <c r="D30"/>
-      <c r="E30"/>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
       <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30" t="n">
-        <v>7076114</v>
-      </c>
+      <c r="G30" t="n">
+        <v>5485166</v>
+      </c>
+      <c r="H30"/>
       <c r="I30"/>
     </row>
     <row r="31">
@@ -31856,10 +31829,10 @@
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31" t="n">
-        <v>2896509</v>
-      </c>
+      <c r="G31" t="n">
+        <v>10395462</v>
+      </c>
+      <c r="H31"/>
       <c r="I31"/>
     </row>
     <row r="32">
@@ -31870,16 +31843,20 @@
         <v>1686</v>
       </c>
       <c r="C32"/>
-      <c r="D32"/>
+      <c r="D32" t="n">
+        <v>1507907</v>
+      </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
-      <c r="F32"/>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
       <c r="G32" t="n">
-        <v>57491732</v>
+        <v>46868260</v>
       </c>
       <c r="H32" t="n">
-        <v>22989563</v>
+        <v>722905</v>
       </c>
       <c r="I32"/>
     </row>
@@ -31890,17 +31867,13 @@
       <c r="B33" t="s">
         <v>1687</v>
       </c>
-      <c r="C33" t="n">
-        <v>809630</v>
-      </c>
+      <c r="C33"/>
       <c r="D33"/>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
+      <c r="E33"/>
       <c r="F33"/>
       <c r="G33"/>
       <c r="H33" t="n">
-        <v>114948983</v>
+        <v>982011</v>
       </c>
       <c r="I33"/>
     </row>
@@ -31913,15 +31886,11 @@
       </c>
       <c r="C34"/>
       <c r="D34"/>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
+      <c r="E34"/>
       <c r="F34"/>
-      <c r="G34" t="n">
-        <v>116151055</v>
-      </c>
+      <c r="G34"/>
       <c r="H34" t="n">
-        <v>11</v>
+        <v>371946</v>
       </c>
       <c r="I34"/>
     </row>
@@ -31932,13 +31901,17 @@
       <c r="B35" t="s">
         <v>1689</v>
       </c>
-      <c r="C35"/>
+      <c r="C35" t="n">
+        <v>141246</v>
+      </c>
       <c r="D35"/>
-      <c r="E35"/>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
       <c r="F35"/>
       <c r="G35"/>
       <c r="H35" t="n">
-        <v>6334691</v>
+        <v>3718338</v>
       </c>
       <c r="I35"/>
     </row>
@@ -31951,13 +31924,11 @@
       </c>
       <c r="C36"/>
       <c r="D36"/>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
+      <c r="E36"/>
       <c r="F36"/>
       <c r="G36"/>
       <c r="H36" t="n">
-        <v>35943706</v>
+        <v>491909</v>
       </c>
       <c r="I36"/>
     </row>
@@ -31970,15 +31941,11 @@
       </c>
       <c r="C37"/>
       <c r="D37"/>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
+      <c r="E37"/>
       <c r="F37"/>
-      <c r="G37" t="n">
-        <v>136579</v>
-      </c>
+      <c r="G37"/>
       <c r="H37" t="n">
-        <v>2833005</v>
+        <v>612756</v>
       </c>
       <c r="I37"/>
     </row>
@@ -31991,15 +31958,11 @@
       </c>
       <c r="C38"/>
       <c r="D38"/>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
+      <c r="E38"/>
       <c r="F38"/>
-      <c r="G38" t="n">
-        <v>64275001</v>
-      </c>
+      <c r="G38"/>
       <c r="H38" t="n">
-        <v>12</v>
+        <v>619065</v>
       </c>
       <c r="I38"/>
     </row>
@@ -32017,9 +31980,11 @@
       </c>
       <c r="F39"/>
       <c r="G39" t="n">
-        <v>5485166</v>
-      </c>
-      <c r="H39"/>
+        <v>1049031</v>
+      </c>
+      <c r="H39" t="n">
+        <v>192926166</v>
+      </c>
       <c r="I39"/>
     </row>
     <row r="40">
@@ -32031,15 +31996,11 @@
       </c>
       <c r="C40"/>
       <c r="D40"/>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
+      <c r="E40"/>
       <c r="F40"/>
-      <c r="G40" t="n">
-        <v>64275001</v>
-      </c>
+      <c r="G40"/>
       <c r="H40" t="n">
-        <v>12</v>
+        <v>151486</v>
       </c>
       <c r="I40"/>
     </row>
@@ -32052,14 +32013,12 @@
       </c>
       <c r="C41"/>
       <c r="D41"/>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
+      <c r="E41"/>
       <c r="F41"/>
-      <c r="G41" t="n">
-        <v>5485166</v>
-      </c>
-      <c r="H41"/>
+      <c r="G41"/>
+      <c r="H41" t="n">
+        <v>151934</v>
+      </c>
       <c r="I41"/>
     </row>
     <row r="42">
@@ -32073,10 +32032,10 @@
       <c r="D42"/>
       <c r="E42"/>
       <c r="F42"/>
-      <c r="G42" t="n">
-        <v>10395462</v>
-      </c>
-      <c r="H42"/>
+      <c r="G42"/>
+      <c r="H42" t="n">
+        <v>828527</v>
+      </c>
       <c r="I42"/>
     </row>
     <row r="43">
@@ -32087,21 +32046,13 @@
         <v>1697</v>
       </c>
       <c r="C43"/>
-      <c r="D43" t="n">
-        <v>1507907</v>
-      </c>
+      <c r="D43"/>
       <c r="E43" t="n">
         <v>0</v>
       </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>46868260</v>
-      </c>
-      <c r="H43" t="n">
-        <v>722905</v>
-      </c>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
       <c r="I43"/>
     </row>
     <row r="44">
@@ -32113,12 +32064,12 @@
       </c>
       <c r="C44"/>
       <c r="D44"/>
-      <c r="E44"/>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
       <c r="F44"/>
       <c r="G44"/>
-      <c r="H44" t="n">
-        <v>982011</v>
-      </c>
+      <c r="H44"/>
       <c r="I44"/>
     </row>
     <row r="45">
@@ -32134,7 +32085,7 @@
       <c r="F45"/>
       <c r="G45"/>
       <c r="H45" t="n">
-        <v>371946</v>
+        <v>21126321</v>
       </c>
       <c r="I45"/>
     </row>
@@ -32145,17 +32096,13 @@
       <c r="B46" t="s">
         <v>1700</v>
       </c>
-      <c r="C46" t="n">
-        <v>141246</v>
-      </c>
+      <c r="C46"/>
       <c r="D46"/>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
+      <c r="E46"/>
       <c r="F46"/>
       <c r="G46"/>
       <c r="H46" t="n">
-        <v>3718338</v>
+        <v>40618404</v>
       </c>
       <c r="I46"/>
     </row>
@@ -32172,7 +32119,7 @@
       <c r="F47"/>
       <c r="G47"/>
       <c r="H47" t="n">
-        <v>491909</v>
+        <v>23243307</v>
       </c>
       <c r="I47"/>
     </row>
@@ -32189,7 +32136,7 @@
       <c r="F48"/>
       <c r="G48"/>
       <c r="H48" t="n">
-        <v>612756</v>
+        <v>6328768</v>
       </c>
       <c r="I48"/>
     </row>
@@ -32200,13 +32147,19 @@
       <c r="B49" t="s">
         <v>1703</v>
       </c>
-      <c r="C49"/>
+      <c r="C49" t="n">
+        <v>42460</v>
+      </c>
       <c r="D49"/>
-      <c r="E49"/>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
       <c r="F49"/>
-      <c r="G49"/>
+      <c r="G49" t="n">
+        <v>424736</v>
+      </c>
       <c r="H49" t="n">
-        <v>619065</v>
+        <v>2603640</v>
       </c>
       <c r="I49"/>
     </row>
@@ -32224,11 +32177,9 @@
       </c>
       <c r="F50"/>
       <c r="G50" t="n">
-        <v>1049031</v>
-      </c>
-      <c r="H50" t="n">
-        <v>192926166</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="H50"/>
       <c r="I50"/>
     </row>
     <row r="51">
@@ -32240,12 +32191,12 @@
       </c>
       <c r="C51"/>
       <c r="D51"/>
-      <c r="E51"/>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
       <c r="F51"/>
       <c r="G51"/>
-      <c r="H51" t="n">
-        <v>151486</v>
-      </c>
+      <c r="H51"/>
       <c r="I51"/>
     </row>
     <row r="52">
@@ -32257,12 +32208,12 @@
       </c>
       <c r="C52"/>
       <c r="D52"/>
-      <c r="E52"/>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
       <c r="F52"/>
       <c r="G52"/>
-      <c r="H52" t="n">
-        <v>151934</v>
-      </c>
+      <c r="H52"/>
       <c r="I52"/>
     </row>
     <row r="53">
@@ -32274,12 +32225,12 @@
       </c>
       <c r="C53"/>
       <c r="D53"/>
-      <c r="E53"/>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
       <c r="F53"/>
       <c r="G53"/>
-      <c r="H53" t="n">
-        <v>828527</v>
-      </c>
+      <c r="H53"/>
       <c r="I53"/>
     </row>
     <row r="54">
@@ -32325,12 +32276,12 @@
       </c>
       <c r="C56"/>
       <c r="D56"/>
-      <c r="E56"/>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
       <c r="F56"/>
       <c r="G56"/>
-      <c r="H56" t="n">
-        <v>21126321</v>
-      </c>
+      <c r="H56"/>
       <c r="I56"/>
     </row>
     <row r="57">
@@ -32342,12 +32293,12 @@
       </c>
       <c r="C57"/>
       <c r="D57"/>
-      <c r="E57"/>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
       <c r="F57"/>
       <c r="G57"/>
-      <c r="H57" t="n">
-        <v>40618404</v>
-      </c>
+      <c r="H57"/>
       <c r="I57"/>
     </row>
     <row r="58">
@@ -32359,12 +32310,12 @@
       </c>
       <c r="C58"/>
       <c r="D58"/>
-      <c r="E58"/>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
       <c r="F58"/>
       <c r="G58"/>
-      <c r="H58" t="n">
-        <v>23243307</v>
-      </c>
+      <c r="H58"/>
       <c r="I58"/>
     </row>
     <row r="59">
@@ -32378,10 +32329,10 @@
       <c r="D59"/>
       <c r="E59"/>
       <c r="F59"/>
-      <c r="G59"/>
-      <c r="H59" t="n">
-        <v>6328768</v>
-      </c>
+      <c r="G59" t="n">
+        <v>5958989</v>
+      </c>
+      <c r="H59"/>
       <c r="I59"/>
     </row>
     <row r="60">
@@ -32391,20 +32342,16 @@
       <c r="B60" t="s">
         <v>1714</v>
       </c>
-      <c r="C60" t="n">
-        <v>42460</v>
-      </c>
+      <c r="C60"/>
       <c r="D60"/>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>424736</v>
-      </c>
-      <c r="H60" t="n">
-        <v>2603640</v>
-      </c>
+        <v>15684458</v>
+      </c>
+      <c r="H60"/>
       <c r="I60"/>
     </row>
     <row r="61">
@@ -32416,12 +32363,10 @@
       </c>
       <c r="C61"/>
       <c r="D61"/>
-      <c r="E61" t="n">
-        <v>0</v>
-      </c>
+      <c r="E61"/>
       <c r="F61"/>
       <c r="G61" t="n">
-        <v>113</v>
+        <v>17231414</v>
       </c>
       <c r="H61"/>
       <c r="I61"/>
@@ -32439,7 +32384,9 @@
         <v>0</v>
       </c>
       <c r="F62"/>
-      <c r="G62"/>
+      <c r="G62" t="n">
+        <v>40790255</v>
+      </c>
       <c r="H62"/>
       <c r="I62"/>
     </row>
@@ -32452,12 +32399,12 @@
       </c>
       <c r="C63"/>
       <c r="D63"/>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
+      <c r="E63"/>
       <c r="F63"/>
       <c r="G63"/>
-      <c r="H63"/>
+      <c r="H63" t="n">
+        <v>16987060</v>
+      </c>
       <c r="I63"/>
     </row>
     <row r="64">
@@ -32469,12 +32416,12 @@
       </c>
       <c r="C64"/>
       <c r="D64"/>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
+      <c r="E64"/>
       <c r="F64"/>
       <c r="G64"/>
-      <c r="H64"/>
+      <c r="H64" t="n">
+        <v>17748213</v>
+      </c>
       <c r="I64"/>
     </row>
     <row r="65">
@@ -32486,12 +32433,12 @@
       </c>
       <c r="C65"/>
       <c r="D65"/>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
+      <c r="E65"/>
       <c r="F65"/>
       <c r="G65"/>
-      <c r="H65"/>
+      <c r="H65" t="n">
+        <v>1785587</v>
+      </c>
       <c r="I65"/>
     </row>
     <row r="66">
@@ -32501,14 +32448,16 @@
       <c r="B66" t="s">
         <v>1720</v>
       </c>
-      <c r="C66"/>
+      <c r="C66" t="n">
+        <v>46371</v>
+      </c>
       <c r="D66"/>
-      <c r="E66" t="n">
-        <v>0</v>
-      </c>
+      <c r="E66"/>
       <c r="F66"/>
       <c r="G66"/>
-      <c r="H66"/>
+      <c r="H66" t="n">
+        <v>11647490</v>
+      </c>
       <c r="I66"/>
     </row>
     <row r="67">
@@ -32519,12 +32468,16 @@
         <v>1721</v>
       </c>
       <c r="C67"/>
-      <c r="D67"/>
+      <c r="D67" t="n">
+        <v>9728407</v>
+      </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
       <c r="F67"/>
-      <c r="G67"/>
+      <c r="G67" t="n">
+        <v>10</v>
+      </c>
       <c r="H67"/>
       <c r="I67"/>
     </row>
@@ -32537,12 +32490,12 @@
       </c>
       <c r="C68"/>
       <c r="D68"/>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
+      <c r="E68"/>
       <c r="F68"/>
       <c r="G68"/>
-      <c r="H68"/>
+      <c r="H68" t="n">
+        <v>28343192</v>
+      </c>
       <c r="I68"/>
     </row>
     <row r="69">
@@ -32554,12 +32507,12 @@
       </c>
       <c r="C69"/>
       <c r="D69"/>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
+      <c r="E69"/>
       <c r="F69"/>
       <c r="G69"/>
-      <c r="H69"/>
+      <c r="H69" t="n">
+        <v>9511304</v>
+      </c>
       <c r="I69"/>
     </row>
     <row r="70">
@@ -32573,10 +32526,10 @@
       <c r="D70"/>
       <c r="E70"/>
       <c r="F70"/>
-      <c r="G70" t="n">
-        <v>5958989</v>
-      </c>
-      <c r="H70"/>
+      <c r="G70"/>
+      <c r="H70" t="n">
+        <v>6040698</v>
+      </c>
       <c r="I70"/>
     </row>
     <row r="71">
@@ -32588,14 +32541,12 @@
       </c>
       <c r="C71"/>
       <c r="D71"/>
-      <c r="E71" t="n">
-        <v>0</v>
-      </c>
+      <c r="E71"/>
       <c r="F71"/>
-      <c r="G71" t="n">
-        <v>15684458</v>
-      </c>
-      <c r="H71"/>
+      <c r="G71"/>
+      <c r="H71" t="n">
+        <v>6164907</v>
+      </c>
       <c r="I71"/>
     </row>
     <row r="72">
@@ -32609,10 +32560,10 @@
       <c r="D72"/>
       <c r="E72"/>
       <c r="F72"/>
-      <c r="G72" t="n">
-        <v>17231414</v>
-      </c>
-      <c r="H72"/>
+      <c r="G72"/>
+      <c r="H72" t="n">
+        <v>3969192</v>
+      </c>
       <c r="I72"/>
     </row>
     <row r="73">
@@ -32624,14 +32575,12 @@
       </c>
       <c r="C73"/>
       <c r="D73"/>
-      <c r="E73" t="n">
-        <v>0</v>
-      </c>
+      <c r="E73"/>
       <c r="F73"/>
-      <c r="G73" t="n">
-        <v>40790255</v>
-      </c>
-      <c r="H73"/>
+      <c r="G73"/>
+      <c r="H73" t="n">
+        <v>31580394</v>
+      </c>
       <c r="I73"/>
     </row>
     <row r="74">
@@ -32643,11 +32592,13 @@
       </c>
       <c r="C74"/>
       <c r="D74"/>
-      <c r="E74"/>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
       <c r="F74"/>
       <c r="G74"/>
       <c r="H74" t="n">
-        <v>16987060</v>
+        <v>29026664</v>
       </c>
       <c r="I74"/>
     </row>
@@ -32664,7 +32615,7 @@
       <c r="F75"/>
       <c r="G75"/>
       <c r="H75" t="n">
-        <v>17748213</v>
+        <v>3481350</v>
       </c>
       <c r="I75"/>
     </row>
@@ -32677,11 +32628,13 @@
       </c>
       <c r="C76"/>
       <c r="D76"/>
-      <c r="E76"/>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
       <c r="F76"/>
       <c r="G76"/>
       <c r="H76" t="n">
-        <v>1785587</v>
+        <v>48165987</v>
       </c>
       <c r="I76"/>
     </row>
@@ -32692,15 +32645,13 @@
       <c r="B77" t="s">
         <v>1731</v>
       </c>
-      <c r="C77" t="n">
-        <v>46371</v>
-      </c>
+      <c r="C77"/>
       <c r="D77"/>
       <c r="E77"/>
       <c r="F77"/>
       <c r="G77"/>
       <c r="H77" t="n">
-        <v>11647490</v>
+        <v>20699785</v>
       </c>
       <c r="I77"/>
     </row>
@@ -32712,17 +32663,13 @@
         <v>1732</v>
       </c>
       <c r="C78"/>
-      <c r="D78" t="n">
-        <v>9728407</v>
-      </c>
-      <c r="E78" t="n">
-        <v>0</v>
-      </c>
+      <c r="D78"/>
+      <c r="E78"/>
       <c r="F78"/>
-      <c r="G78" t="n">
-        <v>10</v>
-      </c>
-      <c r="H78"/>
+      <c r="G78"/>
+      <c r="H78" t="n">
+        <v>2712040</v>
+      </c>
       <c r="I78"/>
     </row>
     <row r="79">
@@ -32732,13 +32679,17 @@
       <c r="B79" t="s">
         <v>1733</v>
       </c>
-      <c r="C79"/>
+      <c r="C79" t="n">
+        <v>429</v>
+      </c>
       <c r="D79"/>
       <c r="E79"/>
       <c r="F79"/>
-      <c r="G79"/>
+      <c r="G79" t="n">
+        <v>4262</v>
+      </c>
       <c r="H79" t="n">
-        <v>28343192</v>
+        <v>73313497</v>
       </c>
       <c r="I79"/>
     </row>
@@ -32751,11 +32702,13 @@
       </c>
       <c r="C80"/>
       <c r="D80"/>
-      <c r="E80"/>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
       <c r="F80"/>
       <c r="G80"/>
       <c r="H80" t="n">
-        <v>9511304</v>
+        <v>28</v>
       </c>
       <c r="I80"/>
     </row>
@@ -32768,12 +32721,12 @@
       </c>
       <c r="C81"/>
       <c r="D81"/>
-      <c r="E81"/>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
       <c r="F81"/>
       <c r="G81"/>
-      <c r="H81" t="n">
-        <v>6040698</v>
-      </c>
+      <c r="H81"/>
       <c r="I81"/>
     </row>
     <row r="82">
@@ -32785,12 +32738,12 @@
       </c>
       <c r="C82"/>
       <c r="D82"/>
-      <c r="E82"/>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
       <c r="F82"/>
       <c r="G82"/>
-      <c r="H82" t="n">
-        <v>6164907</v>
-      </c>
+      <c r="H82"/>
       <c r="I82"/>
     </row>
     <row r="83">
@@ -32800,13 +32753,21 @@
       <c r="B83" t="s">
         <v>1737</v>
       </c>
-      <c r="C83"/>
-      <c r="D83"/>
-      <c r="E83"/>
+      <c r="C83" t="n">
+        <v>11827121</v>
+      </c>
+      <c r="D83" t="n">
+        <v>17238700</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
       <c r="F83"/>
-      <c r="G83"/>
+      <c r="G83" t="n">
+        <v>5704422</v>
+      </c>
       <c r="H83" t="n">
-        <v>3969192</v>
+        <v>401313750</v>
       </c>
       <c r="I83"/>
     </row>
@@ -32817,13 +32778,19 @@
       <c r="B84" t="s">
         <v>1738</v>
       </c>
-      <c r="C84"/>
+      <c r="C84" t="n">
+        <v>204</v>
+      </c>
       <c r="D84"/>
-      <c r="E84"/>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
       <c r="F84"/>
-      <c r="G84"/>
+      <c r="G84" t="n">
+        <v>32212632</v>
+      </c>
       <c r="H84" t="n">
-        <v>31580394</v>
+        <v>26347088</v>
       </c>
       <c r="I84"/>
     </row>
@@ -32834,15 +32801,15 @@
       <c r="B85" t="s">
         <v>1739</v>
       </c>
-      <c r="C85"/>
+      <c r="C85" t="n">
+        <v>1019621</v>
+      </c>
       <c r="D85"/>
-      <c r="E85" t="n">
-        <v>0</v>
-      </c>
+      <c r="E85"/>
       <c r="F85"/>
       <c r="G85"/>
       <c r="H85" t="n">
-        <v>29026664</v>
+        <v>6783439</v>
       </c>
       <c r="I85"/>
     </row>
@@ -32855,11 +32822,13 @@
       </c>
       <c r="C86"/>
       <c r="D86"/>
-      <c r="E86"/>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
       <c r="F86"/>
       <c r="G86"/>
       <c r="H86" t="n">
-        <v>3481350</v>
+        <v>10078309</v>
       </c>
       <c r="I86"/>
     </row>
@@ -32872,13 +32841,11 @@
       </c>
       <c r="C87"/>
       <c r="D87"/>
-      <c r="E87" t="n">
-        <v>0</v>
-      </c>
+      <c r="E87"/>
       <c r="F87"/>
       <c r="G87"/>
       <c r="H87" t="n">
-        <v>48165987</v>
+        <v>7015668</v>
       </c>
       <c r="I87"/>
     </row>
@@ -32895,7 +32862,7 @@
       <c r="F88"/>
       <c r="G88"/>
       <c r="H88" t="n">
-        <v>20699785</v>
+        <v>16396241</v>
       </c>
       <c r="I88"/>
     </row>
@@ -32908,11 +32875,13 @@
       </c>
       <c r="C89"/>
       <c r="D89"/>
-      <c r="E89"/>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
       <c r="F89"/>
       <c r="G89"/>
       <c r="H89" t="n">
-        <v>2712040</v>
+        <v>12090025</v>
       </c>
       <c r="I89"/>
     </row>
@@ -32923,17 +32892,17 @@
       <c r="B90" t="s">
         <v>1744</v>
       </c>
-      <c r="C90" t="n">
-        <v>429</v>
-      </c>
+      <c r="C90"/>
       <c r="D90"/>
-      <c r="E90"/>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
       <c r="F90"/>
       <c r="G90" t="n">
-        <v>4262</v>
+        <v>1694593</v>
       </c>
       <c r="H90" t="n">
-        <v>73313497</v>
+        <v>9969450</v>
       </c>
       <c r="I90"/>
     </row>
@@ -32952,7 +32921,7 @@
       <c r="F91"/>
       <c r="G91"/>
       <c r="H91" t="n">
-        <v>28</v>
+        <v>42863486</v>
       </c>
       <c r="I91"/>
     </row>
@@ -32965,12 +32934,12 @@
       </c>
       <c r="C92"/>
       <c r="D92"/>
-      <c r="E92" t="n">
-        <v>0</v>
-      </c>
+      <c r="E92"/>
       <c r="F92"/>
       <c r="G92"/>
-      <c r="H92"/>
+      <c r="H92" t="n">
+        <v>326136</v>
+      </c>
       <c r="I92"/>
     </row>
     <row r="93">
@@ -32997,21 +32966,17 @@
       <c r="B94" t="s">
         <v>1748</v>
       </c>
-      <c r="C94" t="n">
-        <v>11827121</v>
-      </c>
-      <c r="D94" t="n">
-        <v>17238700</v>
-      </c>
+      <c r="C94"/>
+      <c r="D94"/>
       <c r="E94" t="n">
         <v>0</v>
       </c>
       <c r="F94"/>
       <c r="G94" t="n">
-        <v>5704422</v>
+        <v>2911365</v>
       </c>
       <c r="H94" t="n">
-        <v>401313750</v>
+        <v>70766379</v>
       </c>
       <c r="I94"/>
     </row>
@@ -33022,19 +32987,15 @@
       <c r="B95" t="s">
         <v>1749</v>
       </c>
-      <c r="C95" t="n">
-        <v>204</v>
-      </c>
+      <c r="C95"/>
       <c r="D95"/>
       <c r="E95" t="n">
         <v>0</v>
       </c>
       <c r="F95"/>
-      <c r="G95" t="n">
-        <v>32212632</v>
-      </c>
+      <c r="G95"/>
       <c r="H95" t="n">
-        <v>26347088</v>
+        <v>57355358</v>
       </c>
       <c r="I95"/>
     </row>
@@ -33045,15 +33006,15 @@
       <c r="B96" t="s">
         <v>1750</v>
       </c>
-      <c r="C96" t="n">
-        <v>1019621</v>
-      </c>
+      <c r="C96"/>
       <c r="D96"/>
       <c r="E96"/>
       <c r="F96"/>
-      <c r="G96"/>
+      <c r="G96" t="n">
+        <v>47700947</v>
+      </c>
       <c r="H96" t="n">
-        <v>6783439</v>
+        <v>22647772</v>
       </c>
       <c r="I96"/>
     </row>
@@ -33066,14 +33027,12 @@
       </c>
       <c r="C97"/>
       <c r="D97"/>
-      <c r="E97" t="n">
-        <v>0</v>
-      </c>
+      <c r="E97"/>
       <c r="F97"/>
-      <c r="G97"/>
-      <c r="H97" t="n">
-        <v>10078309</v>
-      </c>
+      <c r="G97" t="n">
+        <v>6999909</v>
+      </c>
+      <c r="H97"/>
       <c r="I97"/>
     </row>
     <row r="98">
@@ -33085,11 +33044,15 @@
       </c>
       <c r="C98"/>
       <c r="D98"/>
-      <c r="E98"/>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
       <c r="F98"/>
-      <c r="G98"/>
+      <c r="G98" t="n">
+        <v>9863804</v>
+      </c>
       <c r="H98" t="n">
-        <v>7015668</v>
+        <v>626943</v>
       </c>
       <c r="I98"/>
     </row>
@@ -33100,13 +33063,19 @@
       <c r="B99" t="s">
         <v>1753</v>
       </c>
-      <c r="C99"/>
+      <c r="C99" t="n">
+        <v>13617</v>
+      </c>
       <c r="D99"/>
-      <c r="E99"/>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
       <c r="F99"/>
-      <c r="G99"/>
+      <c r="G99" t="n">
+        <v>18969765</v>
+      </c>
       <c r="H99" t="n">
-        <v>16396241</v>
+        <v>678</v>
       </c>
       <c r="I99"/>
     </row>
@@ -33119,13 +33088,11 @@
       </c>
       <c r="C100"/>
       <c r="D100"/>
-      <c r="E100" t="n">
-        <v>0</v>
-      </c>
+      <c r="E100"/>
       <c r="F100"/>
       <c r="G100"/>
       <c r="H100" t="n">
-        <v>12090025</v>
+        <v>92345764</v>
       </c>
       <c r="I100"/>
     </row>
@@ -33138,16 +33105,12 @@
       </c>
       <c r="C101"/>
       <c r="D101"/>
-      <c r="E101" t="n">
-        <v>0</v>
-      </c>
+      <c r="E101"/>
       <c r="F101"/>
       <c r="G101" t="n">
-        <v>1694593</v>
-      </c>
-      <c r="H101" t="n">
-        <v>9969450</v>
-      </c>
+        <v>5281638</v>
+      </c>
+      <c r="H101"/>
       <c r="I101"/>
     </row>
     <row r="102">
@@ -33157,15 +33120,15 @@
       <c r="B102" t="s">
         <v>1756</v>
       </c>
-      <c r="C102"/>
+      <c r="C102" t="n">
+        <v>5300637</v>
+      </c>
       <c r="D102"/>
-      <c r="E102" t="n">
-        <v>0</v>
-      </c>
+      <c r="E102"/>
       <c r="F102"/>
       <c r="G102"/>
       <c r="H102" t="n">
-        <v>42863486</v>
+        <v>7032513</v>
       </c>
       <c r="I102"/>
     </row>
@@ -33182,7 +33145,7 @@
       <c r="F103"/>
       <c r="G103"/>
       <c r="H103" t="n">
-        <v>326136</v>
+        <v>3556267</v>
       </c>
       <c r="I103"/>
     </row>
@@ -33195,12 +33158,12 @@
       </c>
       <c r="C104"/>
       <c r="D104"/>
-      <c r="E104" t="n">
-        <v>0</v>
-      </c>
+      <c r="E104"/>
       <c r="F104"/>
       <c r="G104"/>
-      <c r="H104"/>
+      <c r="H104" t="n">
+        <v>2193450</v>
+      </c>
       <c r="I104"/>
     </row>
     <row r="105">
@@ -33212,15 +33175,11 @@
       </c>
       <c r="C105"/>
       <c r="D105"/>
-      <c r="E105" t="n">
-        <v>0</v>
-      </c>
+      <c r="E105"/>
       <c r="F105"/>
-      <c r="G105" t="n">
-        <v>2911365</v>
-      </c>
+      <c r="G105"/>
       <c r="H105" t="n">
-        <v>70766379</v>
+        <v>1757733</v>
       </c>
       <c r="I105"/>
     </row>
@@ -33231,15 +33190,15 @@
       <c r="B106" t="s">
         <v>1760</v>
       </c>
-      <c r="C106"/>
+      <c r="C106" t="n">
+        <v>3206</v>
+      </c>
       <c r="D106"/>
-      <c r="E106" t="n">
-        <v>0</v>
-      </c>
+      <c r="E106"/>
       <c r="F106"/>
       <c r="G106"/>
       <c r="H106" t="n">
-        <v>57355358</v>
+        <v>4696213</v>
       </c>
       <c r="I106"/>
     </row>
@@ -33254,11 +33213,9 @@
       <c r="D107"/>
       <c r="E107"/>
       <c r="F107"/>
-      <c r="G107" t="n">
-        <v>47700947</v>
-      </c>
+      <c r="G107"/>
       <c r="H107" t="n">
-        <v>22647772</v>
+        <v>13938159</v>
       </c>
       <c r="I107"/>
     </row>
@@ -33273,10 +33230,10 @@
       <c r="D108"/>
       <c r="E108"/>
       <c r="F108"/>
-      <c r="G108" t="n">
-        <v>6999909</v>
-      </c>
-      <c r="H108"/>
+      <c r="G108"/>
+      <c r="H108" t="n">
+        <v>11103806</v>
+      </c>
       <c r="I108"/>
     </row>
     <row r="109">
@@ -33288,15 +33245,11 @@
       </c>
       <c r="C109"/>
       <c r="D109"/>
-      <c r="E109" t="n">
-        <v>0</v>
-      </c>
+      <c r="E109"/>
       <c r="F109"/>
-      <c r="G109" t="n">
-        <v>9863804</v>
-      </c>
+      <c r="G109"/>
       <c r="H109" t="n">
-        <v>626943</v>
+        <v>8681819</v>
       </c>
       <c r="I109"/>
     </row>
@@ -33308,18 +33261,16 @@
         <v>1764</v>
       </c>
       <c r="C110" t="n">
-        <v>13617</v>
+        <v>150318</v>
       </c>
       <c r="D110"/>
       <c r="E110" t="n">
         <v>0</v>
       </c>
       <c r="F110"/>
-      <c r="G110" t="n">
-        <v>18969765</v>
-      </c>
+      <c r="G110"/>
       <c r="H110" t="n">
-        <v>678</v>
+        <v>10774209</v>
       </c>
       <c r="I110"/>
     </row>
@@ -33332,11 +33283,13 @@
       </c>
       <c r="C111"/>
       <c r="D111"/>
-      <c r="E111"/>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
       <c r="F111"/>
       <c r="G111"/>
       <c r="H111" t="n">
-        <v>92345764</v>
+        <v>8716482</v>
       </c>
       <c r="I111"/>
     </row>
@@ -33351,10 +33304,10 @@
       <c r="D112"/>
       <c r="E112"/>
       <c r="F112"/>
-      <c r="G112" t="n">
-        <v>5281638</v>
-      </c>
-      <c r="H112"/>
+      <c r="G112"/>
+      <c r="H112" t="n">
+        <v>934</v>
+      </c>
       <c r="I112"/>
     </row>
     <row r="113">
@@ -33364,16 +33317,14 @@
       <c r="B113" t="s">
         <v>1767</v>
       </c>
-      <c r="C113" t="n">
-        <v>5300637</v>
-      </c>
+      <c r="C113"/>
       <c r="D113"/>
-      <c r="E113"/>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
       <c r="F113"/>
       <c r="G113"/>
-      <c r="H113" t="n">
-        <v>7032513</v>
-      </c>
+      <c r="H113"/>
       <c r="I113"/>
     </row>
     <row r="114">
@@ -33389,7 +33340,7 @@
       <c r="F114"/>
       <c r="G114"/>
       <c r="H114" t="n">
-        <v>3556267</v>
+        <v>38</v>
       </c>
       <c r="I114"/>
     </row>
@@ -33402,11 +33353,13 @@
       </c>
       <c r="C115"/>
       <c r="D115"/>
-      <c r="E115"/>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
       <c r="F115"/>
       <c r="G115"/>
       <c r="H115" t="n">
-        <v>2193450</v>
+        <v>44686510</v>
       </c>
       <c r="I115"/>
     </row>
@@ -33423,7 +33376,7 @@
       <c r="F116"/>
       <c r="G116"/>
       <c r="H116" t="n">
-        <v>1757733</v>
+        <v>13444501</v>
       </c>
       <c r="I116"/>
     </row>
@@ -33434,15 +33387,13 @@
       <c r="B117" t="s">
         <v>1771</v>
       </c>
-      <c r="C117" t="n">
-        <v>3206</v>
-      </c>
+      <c r="C117"/>
       <c r="D117"/>
       <c r="E117"/>
       <c r="F117"/>
       <c r="G117"/>
       <c r="H117" t="n">
-        <v>4696213</v>
+        <v>7084544</v>
       </c>
       <c r="I117"/>
     </row>
@@ -33459,7 +33410,7 @@
       <c r="F118"/>
       <c r="G118"/>
       <c r="H118" t="n">
-        <v>13938159</v>
+        <v>20018466</v>
       </c>
       <c r="I118"/>
     </row>
@@ -33476,7 +33427,7 @@
       <c r="F119"/>
       <c r="G119"/>
       <c r="H119" t="n">
-        <v>11103806</v>
+        <v>22652313</v>
       </c>
       <c r="I119"/>
     </row>
@@ -33493,7 +33444,7 @@
       <c r="F120"/>
       <c r="G120"/>
       <c r="H120" t="n">
-        <v>8681819</v>
+        <v>47208345</v>
       </c>
       <c r="I120"/>
     </row>
@@ -33504,17 +33455,13 @@
       <c r="B121" t="s">
         <v>1775</v>
       </c>
-      <c r="C121" t="n">
-        <v>150318</v>
-      </c>
+      <c r="C121"/>
       <c r="D121"/>
-      <c r="E121" t="n">
-        <v>0</v>
-      </c>
+      <c r="E121"/>
       <c r="F121"/>
       <c r="G121"/>
       <c r="H121" t="n">
-        <v>10774209</v>
+        <v>2758561</v>
       </c>
       <c r="I121"/>
     </row>
@@ -33527,13 +33474,11 @@
       </c>
       <c r="C122"/>
       <c r="D122"/>
-      <c r="E122" t="n">
-        <v>0</v>
-      </c>
+      <c r="E122"/>
       <c r="F122"/>
       <c r="G122"/>
       <c r="H122" t="n">
-        <v>8716482</v>
+        <v>17676563</v>
       </c>
       <c r="I122"/>
     </row>
@@ -33550,7 +33495,7 @@
       <c r="F123"/>
       <c r="G123"/>
       <c r="H123" t="n">
-        <v>934</v>
+        <v>4786430</v>
       </c>
       <c r="I123"/>
     </row>
@@ -33584,7 +33529,7 @@
       <c r="F125"/>
       <c r="G125"/>
       <c r="H125" t="n">
-        <v>38</v>
+        <v>5343697</v>
       </c>
       <c r="I125"/>
     </row>
@@ -33597,13 +33542,11 @@
       </c>
       <c r="C126"/>
       <c r="D126"/>
-      <c r="E126" t="n">
-        <v>0</v>
-      </c>
+      <c r="E126"/>
       <c r="F126"/>
       <c r="G126"/>
       <c r="H126" t="n">
-        <v>44686510</v>
+        <v>9620445</v>
       </c>
       <c r="I126"/>
     </row>
@@ -33620,7 +33563,7 @@
       <c r="F127"/>
       <c r="G127"/>
       <c r="H127" t="n">
-        <v>13444501</v>
+        <v>6001009</v>
       </c>
       <c r="I127"/>
     </row>
@@ -33637,7 +33580,7 @@
       <c r="F128"/>
       <c r="G128"/>
       <c r="H128" t="n">
-        <v>7084544</v>
+        <v>38</v>
       </c>
       <c r="I128"/>
     </row>
@@ -33654,7 +33597,7 @@
       <c r="F129"/>
       <c r="G129"/>
       <c r="H129" t="n">
-        <v>20018466</v>
+        <v>20278958</v>
       </c>
       <c r="I129"/>
     </row>
@@ -33671,7 +33614,7 @@
       <c r="F130"/>
       <c r="G130"/>
       <c r="H130" t="n">
-        <v>22652313</v>
+        <v>46500438</v>
       </c>
       <c r="I130"/>
     </row>
@@ -33684,11 +33627,13 @@
       </c>
       <c r="C131"/>
       <c r="D131"/>
-      <c r="E131"/>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
       <c r="F131"/>
       <c r="G131"/>
       <c r="H131" t="n">
-        <v>47208345</v>
+        <v>27737071</v>
       </c>
       <c r="I131"/>
     </row>
@@ -33701,11 +33646,13 @@
       </c>
       <c r="C132"/>
       <c r="D132"/>
-      <c r="E132"/>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
       <c r="F132"/>
       <c r="G132"/>
       <c r="H132" t="n">
-        <v>2758561</v>
+        <v>121754418</v>
       </c>
       <c r="I132"/>
     </row>
@@ -33718,11 +33665,13 @@
       </c>
       <c r="C133"/>
       <c r="D133"/>
-      <c r="E133"/>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
       <c r="F133"/>
       <c r="G133"/>
       <c r="H133" t="n">
-        <v>17676563</v>
+        <v>52646033</v>
       </c>
       <c r="I133"/>
     </row>
@@ -33735,11 +33684,13 @@
       </c>
       <c r="C134"/>
       <c r="D134"/>
-      <c r="E134"/>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
       <c r="F134"/>
       <c r="G134"/>
       <c r="H134" t="n">
-        <v>4786430</v>
+        <v>81911505</v>
       </c>
       <c r="I134"/>
     </row>
@@ -33756,8 +33707,12 @@
         <v>0</v>
       </c>
       <c r="F135"/>
-      <c r="G135"/>
-      <c r="H135"/>
+      <c r="G135" t="n">
+        <v>2021632</v>
+      </c>
+      <c r="H135" t="n">
+        <v>81911553</v>
+      </c>
       <c r="I135"/>
     </row>
     <row r="136">
@@ -33769,11 +33724,13 @@
       </c>
       <c r="C136"/>
       <c r="D136"/>
-      <c r="E136"/>
+      <c r="E136" t="n">
+        <v>0</v>
+      </c>
       <c r="F136"/>
       <c r="G136"/>
       <c r="H136" t="n">
-        <v>5343697</v>
+        <v>43218855</v>
       </c>
       <c r="I136"/>
     </row>
@@ -33786,11 +33743,13 @@
       </c>
       <c r="C137"/>
       <c r="D137"/>
-      <c r="E137"/>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
       <c r="F137"/>
       <c r="G137"/>
       <c r="H137" t="n">
-        <v>9620445</v>
+        <v>25210468</v>
       </c>
       <c r="I137"/>
     </row>
@@ -33803,11 +33762,15 @@
       </c>
       <c r="C138"/>
       <c r="D138"/>
-      <c r="E138"/>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
       <c r="F138"/>
-      <c r="G138"/>
+      <c r="G138" t="n">
+        <v>99201</v>
+      </c>
       <c r="H138" t="n">
-        <v>6001009</v>
+        <v>38165567</v>
       </c>
       <c r="I138"/>
     </row>
@@ -33820,11 +33783,13 @@
       </c>
       <c r="C139"/>
       <c r="D139"/>
-      <c r="E139"/>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
       <c r="F139"/>
       <c r="G139"/>
       <c r="H139" t="n">
-        <v>38</v>
+        <v>171999381</v>
       </c>
       <c r="I139"/>
     </row>
@@ -33837,12 +33802,12 @@
       </c>
       <c r="C140"/>
       <c r="D140"/>
-      <c r="E140"/>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
       <c r="F140"/>
       <c r="G140"/>
-      <c r="H140" t="n">
-        <v>20278958</v>
-      </c>
+      <c r="H140"/>
       <c r="I140"/>
     </row>
     <row r="141">
@@ -33854,12 +33819,12 @@
       </c>
       <c r="C141"/>
       <c r="D141"/>
-      <c r="E141"/>
+      <c r="E141" t="n">
+        <v>0</v>
+      </c>
       <c r="F141"/>
       <c r="G141"/>
-      <c r="H141" t="n">
-        <v>46500438</v>
-      </c>
+      <c r="H141"/>
       <c r="I141"/>
     </row>
     <row r="142">
@@ -33876,9 +33841,7 @@
       </c>
       <c r="F142"/>
       <c r="G142"/>
-      <c r="H142" t="n">
-        <v>27737071</v>
-      </c>
+      <c r="H142"/>
       <c r="I142"/>
     </row>
     <row r="143">
@@ -33895,9 +33858,7 @@
       </c>
       <c r="F143"/>
       <c r="G143"/>
-      <c r="H143" t="n">
-        <v>121754418</v>
-      </c>
+      <c r="H143"/>
       <c r="I143"/>
     </row>
     <row r="144">
@@ -33914,9 +33875,7 @@
       </c>
       <c r="F144"/>
       <c r="G144"/>
-      <c r="H144" t="n">
-        <v>52646033</v>
-      </c>
+      <c r="H144"/>
       <c r="I144"/>
     </row>
     <row r="145">
@@ -33934,7 +33893,7 @@
       <c r="F145"/>
       <c r="G145"/>
       <c r="H145" t="n">
-        <v>81911505</v>
+        <v>17391892</v>
       </c>
       <c r="I145"/>
     </row>
@@ -33951,11 +33910,9 @@
         <v>0</v>
       </c>
       <c r="F146"/>
-      <c r="G146" t="n">
-        <v>2021632</v>
-      </c>
+      <c r="G146"/>
       <c r="H146" t="n">
-        <v>81911553</v>
+        <v>25679277</v>
       </c>
       <c r="I146"/>
     </row>
@@ -33968,14 +33925,12 @@
       </c>
       <c r="C147"/>
       <c r="D147"/>
-      <c r="E147" t="n">
-        <v>0</v>
-      </c>
+      <c r="E147"/>
       <c r="F147"/>
-      <c r="G147"/>
-      <c r="H147" t="n">
-        <v>43218855</v>
-      </c>
+      <c r="G147" t="n">
+        <v>1672199</v>
+      </c>
+      <c r="H147"/>
       <c r="I147"/>
     </row>
     <row r="148">
@@ -33987,14 +33942,12 @@
       </c>
       <c r="C148"/>
       <c r="D148"/>
-      <c r="E148" t="n">
-        <v>0</v>
-      </c>
+      <c r="E148"/>
       <c r="F148"/>
-      <c r="G148"/>
-      <c r="H148" t="n">
-        <v>25210468</v>
-      </c>
+      <c r="G148" t="n">
+        <v>1249748</v>
+      </c>
+      <c r="H148"/>
       <c r="I148"/>
     </row>
     <row r="149">
@@ -34007,14 +33960,12 @@
       <c r="C149"/>
       <c r="D149"/>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="F149"/>
-      <c r="G149" t="n">
-        <v>99201</v>
-      </c>
+      <c r="G149"/>
       <c r="H149" t="n">
-        <v>38165567</v>
+        <v>12206812</v>
       </c>
       <c r="I149"/>
     </row>
@@ -34028,12 +33979,12 @@
       <c r="C150"/>
       <c r="D150"/>
       <c r="E150" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="F150"/>
       <c r="G150"/>
       <c r="H150" t="n">
-        <v>171999381</v>
+        <v>12206812</v>
       </c>
       <c r="I150"/>
     </row>
@@ -34051,7 +34002,9 @@
       </c>
       <c r="F151"/>
       <c r="G151"/>
-      <c r="H151"/>
+      <c r="H151" t="n">
+        <v>70254802</v>
+      </c>
       <c r="I151"/>
     </row>
     <row r="152">
@@ -34067,8 +34020,12 @@
         <v>0</v>
       </c>
       <c r="F152"/>
-      <c r="G152"/>
-      <c r="H152"/>
+      <c r="G152" t="n">
+        <v>112729</v>
+      </c>
+      <c r="H152" t="n">
+        <v>153395921</v>
+      </c>
       <c r="I152"/>
     </row>
     <row r="153">
@@ -34085,7 +34042,9 @@
       </c>
       <c r="F153"/>
       <c r="G153"/>
-      <c r="H153"/>
+      <c r="H153" t="n">
+        <v>70254802</v>
+      </c>
       <c r="I153"/>
     </row>
     <row r="154">
@@ -34102,7 +34061,9 @@
       </c>
       <c r="F154"/>
       <c r="G154"/>
-      <c r="H154"/>
+      <c r="H154" t="n">
+        <v>87217117</v>
+      </c>
       <c r="I154"/>
     </row>
     <row r="155">
@@ -34112,14 +34073,18 @@
       <c r="B155" t="s">
         <v>1809</v>
       </c>
-      <c r="C155"/>
+      <c r="C155" t="n">
+        <v>3093</v>
+      </c>
       <c r="D155"/>
       <c r="E155" t="n">
         <v>0</v>
       </c>
       <c r="F155"/>
       <c r="G155"/>
-      <c r="H155"/>
+      <c r="H155" t="n">
+        <v>69825225</v>
+      </c>
       <c r="I155"/>
     </row>
     <row r="156">
@@ -34137,147 +34102,171 @@
       <c r="F156"/>
       <c r="G156"/>
       <c r="H156" t="n">
-        <v>17391892</v>
+        <v>225684628</v>
       </c>
       <c r="I156"/>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>1246</v>
+        <v>1811</v>
       </c>
       <c r="B157" t="s">
-        <v>1811</v>
-      </c>
-      <c r="C157"/>
-      <c r="D157"/>
-      <c r="E157" t="n">
-        <v>0</v>
-      </c>
+        <v>1812</v>
+      </c>
+      <c r="C157" t="n">
+        <v>516044</v>
+      </c>
+      <c r="D157" t="n">
+        <v>17238700</v>
+      </c>
+      <c r="E157"/>
       <c r="F157"/>
       <c r="G157"/>
       <c r="H157" t="n">
-        <v>25679277</v>
+        <v>568</v>
       </c>
       <c r="I157"/>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>1246</v>
+        <v>1811</v>
       </c>
       <c r="B158" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="C158"/>
-      <c r="D158"/>
-      <c r="E158"/>
-      <c r="F158"/>
+      <c r="D158" t="n">
+        <v>1507907</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0</v>
+      </c>
       <c r="G158" t="n">
-        <v>1672199</v>
-      </c>
-      <c r="H158"/>
+        <v>38406206</v>
+      </c>
+      <c r="H158" t="n">
+        <v>4830459</v>
+      </c>
       <c r="I158"/>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>1246</v>
+        <v>1811</v>
       </c>
       <c r="B159" t="s">
-        <v>1813</v>
-      </c>
-      <c r="C159"/>
+        <v>1814</v>
+      </c>
+      <c r="C159" t="n">
+        <v>63237</v>
+      </c>
       <c r="D159"/>
-      <c r="E159"/>
+      <c r="E159" t="n">
+        <v>52974</v>
+      </c>
       <c r="F159"/>
       <c r="G159" t="n">
-        <v>1249748</v>
-      </c>
-      <c r="H159"/>
+        <v>12344849</v>
+      </c>
+      <c r="H159" t="n">
+        <v>9079215</v>
+      </c>
       <c r="I159"/>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>1246</v>
+        <v>1811</v>
       </c>
       <c r="B160" t="s">
-        <v>1814</v>
-      </c>
-      <c r="C160"/>
+        <v>1815</v>
+      </c>
+      <c r="C160" t="n">
+        <v>48529</v>
+      </c>
       <c r="D160"/>
       <c r="E160" t="n">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="F160"/>
-      <c r="G160"/>
+      <c r="G160" t="n">
+        <v>795989</v>
+      </c>
       <c r="H160" t="n">
-        <v>12206812</v>
+        <v>1821812</v>
       </c>
       <c r="I160"/>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>1246</v>
+        <v>1811</v>
       </c>
       <c r="B161" t="s">
-        <v>1815</v>
-      </c>
-      <c r="C161"/>
+        <v>1816</v>
+      </c>
+      <c r="C161" t="n">
+        <v>95007</v>
+      </c>
       <c r="D161"/>
       <c r="E161" t="n">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="F161"/>
-      <c r="G161"/>
+      <c r="G161" t="n">
+        <v>6582158</v>
+      </c>
       <c r="H161" t="n">
-        <v>12206812</v>
+        <v>6927612</v>
       </c>
       <c r="I161"/>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>1246</v>
+        <v>1811</v>
       </c>
       <c r="B162" t="s">
-        <v>1816</v>
-      </c>
-      <c r="C162"/>
+        <v>1817</v>
+      </c>
+      <c r="C162" t="n">
+        <v>550174</v>
+      </c>
       <c r="D162"/>
       <c r="E162" t="n">
-        <v>0</v>
+        <v>15423</v>
       </c>
       <c r="F162"/>
-      <c r="G162"/>
+      <c r="G162" t="n">
+        <v>9359614</v>
+      </c>
       <c r="H162" t="n">
-        <v>70254802</v>
+        <v>41749377</v>
       </c>
       <c r="I162"/>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>1246</v>
+        <v>1811</v>
       </c>
       <c r="B163" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="C163"/>
       <c r="D163"/>
-      <c r="E163" t="n">
-        <v>0</v>
-      </c>
+      <c r="E163"/>
       <c r="F163"/>
       <c r="G163" t="n">
-        <v>112729</v>
-      </c>
-      <c r="H163" t="n">
-        <v>153395921</v>
-      </c>
+        <v>5284293</v>
+      </c>
+      <c r="H163"/>
       <c r="I163"/>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>1246</v>
+        <v>1811</v>
       </c>
       <c r="B164" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="C164"/>
       <c r="D164"/>
@@ -34285,229 +34274,241 @@
         <v>0</v>
       </c>
       <c r="F164"/>
-      <c r="G164"/>
+      <c r="G164" t="n">
+        <v>16277486</v>
+      </c>
       <c r="H164" t="n">
-        <v>70254802</v>
+        <v>8976724</v>
       </c>
       <c r="I164"/>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>1246</v>
+        <v>1811</v>
       </c>
       <c r="B165" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="C165"/>
       <c r="D165"/>
       <c r="E165" t="n">
         <v>0</v>
       </c>
-      <c r="F165"/>
-      <c r="G165"/>
+      <c r="F165" t="n">
+        <v>560</v>
+      </c>
+      <c r="G165" t="n">
+        <v>56919977</v>
+      </c>
       <c r="H165" t="n">
-        <v>87217117</v>
+        <v>14076799</v>
       </c>
       <c r="I165"/>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>1246</v>
+        <v>1811</v>
       </c>
       <c r="B166" t="s">
-        <v>1820</v>
-      </c>
-      <c r="C166" t="n">
-        <v>3093</v>
-      </c>
+        <v>1821</v>
+      </c>
+      <c r="C166"/>
       <c r="D166"/>
       <c r="E166" t="n">
         <v>0</v>
       </c>
       <c r="F166"/>
       <c r="G166"/>
-      <c r="H166" t="n">
-        <v>69825225</v>
-      </c>
+      <c r="H166"/>
       <c r="I166"/>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>1246</v>
+        <v>1811</v>
       </c>
       <c r="B167" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="C167"/>
       <c r="D167"/>
       <c r="E167" t="n">
         <v>0</v>
       </c>
-      <c r="F167"/>
-      <c r="G167"/>
+      <c r="F167" t="n">
+        <v>0</v>
+      </c>
+      <c r="G167" t="n">
+        <v>5063864</v>
+      </c>
       <c r="H167" t="n">
-        <v>225684628</v>
+        <v>58371506</v>
       </c>
       <c r="I167"/>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>1822</v>
+        <v>1811</v>
       </c>
       <c r="B168" t="s">
         <v>1823</v>
       </c>
-      <c r="C168" t="n">
-        <v>516044</v>
-      </c>
+      <c r="C168"/>
       <c r="D168" t="n">
-        <v>17238700</v>
-      </c>
-      <c r="E168"/>
-      <c r="F168"/>
-      <c r="G168"/>
+        <v>5420642</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0</v>
+      </c>
+      <c r="G168" t="n">
+        <v>100382806</v>
+      </c>
       <c r="H168" t="n">
-        <v>568</v>
+        <v>97904231</v>
       </c>
       <c r="I168"/>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>1822</v>
+        <v>1811</v>
       </c>
       <c r="B169" t="s">
         <v>1824</v>
       </c>
-      <c r="C169"/>
-      <c r="D169" t="n">
-        <v>1507907</v>
-      </c>
+      <c r="C169" t="n">
+        <v>13617</v>
+      </c>
+      <c r="D169"/>
       <c r="E169" t="n">
         <v>0</v>
       </c>
-      <c r="F169" t="n">
-        <v>0</v>
-      </c>
+      <c r="F169"/>
       <c r="G169" t="n">
-        <v>38406206</v>
+        <v>31561441</v>
       </c>
       <c r="H169" t="n">
-        <v>4830459</v>
+        <v>2300516</v>
       </c>
       <c r="I169"/>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>1822</v>
+        <v>1811</v>
       </c>
       <c r="B170" t="s">
         <v>1825</v>
       </c>
-      <c r="C170" t="n">
-        <v>63237</v>
-      </c>
+      <c r="C170"/>
       <c r="D170"/>
       <c r="E170" t="n">
-        <v>52974</v>
+        <v>0</v>
       </c>
       <c r="F170"/>
       <c r="G170" t="n">
-        <v>12344849</v>
+        <v>13999560</v>
       </c>
       <c r="H170" t="n">
-        <v>9079215</v>
+        <v>15591874</v>
       </c>
       <c r="I170"/>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>1822</v>
+        <v>1811</v>
       </c>
       <c r="B171" t="s">
         <v>1826</v>
       </c>
-      <c r="C171" t="n">
-        <v>48529</v>
-      </c>
-      <c r="D171"/>
+      <c r="C171"/>
+      <c r="D171" t="n">
+        <v>27110634</v>
+      </c>
       <c r="E171" t="n">
         <v>0</v>
       </c>
-      <c r="F171"/>
+      <c r="F171" t="n">
+        <v>527924</v>
+      </c>
       <c r="G171" t="n">
-        <v>795989</v>
+        <v>19252804</v>
       </c>
       <c r="H171" t="n">
-        <v>1821812</v>
+        <v>1661466</v>
       </c>
       <c r="I171"/>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>1822</v>
+        <v>1811</v>
       </c>
       <c r="B172" t="s">
         <v>1827</v>
       </c>
-      <c r="C172" t="n">
-        <v>95007</v>
-      </c>
-      <c r="D172"/>
+      <c r="C172"/>
+      <c r="D172" t="n">
+        <v>4597</v>
+      </c>
       <c r="E172" t="n">
         <v>0</v>
       </c>
       <c r="F172"/>
       <c r="G172" t="n">
-        <v>6582158</v>
-      </c>
-      <c r="H172" t="n">
-        <v>6927612</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="H172"/>
       <c r="I172"/>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>1822</v>
+        <v>1811</v>
       </c>
       <c r="B173" t="s">
         <v>1828</v>
       </c>
-      <c r="C173" t="n">
-        <v>550174</v>
-      </c>
-      <c r="D173"/>
+      <c r="C173"/>
+      <c r="D173" t="n">
+        <v>1542259</v>
+      </c>
       <c r="E173" t="n">
-        <v>15423</v>
+        <v>4203</v>
       </c>
       <c r="F173"/>
       <c r="G173" t="n">
-        <v>9359614</v>
+        <v>16447409</v>
       </c>
       <c r="H173" t="n">
-        <v>41749377</v>
+        <v>55496680</v>
       </c>
       <c r="I173"/>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>1822</v>
+        <v>1811</v>
       </c>
       <c r="B174" t="s">
         <v>1829</v>
       </c>
       <c r="C174"/>
       <c r="D174"/>
-      <c r="E174"/>
-      <c r="F174"/>
+      <c r="E174" t="n">
+        <v>11</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0</v>
+      </c>
       <c r="G174" t="n">
-        <v>5284293</v>
-      </c>
-      <c r="H174"/>
+        <v>1138600</v>
+      </c>
+      <c r="H174" t="n">
+        <v>127485</v>
+      </c>
       <c r="I174"/>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>1822</v>
+        <v>1811</v>
       </c>
       <c r="B175" t="s">
         <v>1830</v>
@@ -34518,63 +34519,63 @@
         <v>0</v>
       </c>
       <c r="F175"/>
-      <c r="G175" t="n">
-        <v>16277486</v>
-      </c>
-      <c r="H175" t="n">
-        <v>8976724</v>
-      </c>
+      <c r="G175"/>
+      <c r="H175"/>
       <c r="I175"/>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>1822</v>
+        <v>1811</v>
       </c>
       <c r="B176" t="s">
         <v>1831</v>
       </c>
       <c r="C176"/>
       <c r="D176"/>
-      <c r="E176" t="n">
-        <v>0</v>
-      </c>
+      <c r="E176"/>
       <c r="F176" t="n">
-        <v>560</v>
-      </c>
-      <c r="G176" t="n">
-        <v>56919977</v>
-      </c>
-      <c r="H176" t="n">
-        <v>14076799</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G176"/>
+      <c r="H176"/>
       <c r="I176"/>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>1822</v>
+        <v>1811</v>
       </c>
       <c r="B177" t="s">
         <v>1832</v>
       </c>
       <c r="C177"/>
-      <c r="D177"/>
+      <c r="D177" t="n">
+        <v>86100501</v>
+      </c>
       <c r="E177" t="n">
         <v>0</v>
       </c>
-      <c r="F177"/>
-      <c r="G177"/>
-      <c r="H177"/>
+      <c r="F177" t="n">
+        <v>0</v>
+      </c>
+      <c r="G177" t="n">
+        <v>100732746</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1388358</v>
+      </c>
       <c r="I177"/>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>1822</v>
+        <v>1811</v>
       </c>
       <c r="B178" t="s">
         <v>1833</v>
       </c>
       <c r="C178"/>
-      <c r="D178"/>
+      <c r="D178" t="n">
+        <v>960603</v>
+      </c>
       <c r="E178" t="n">
         <v>0</v>
       </c>
@@ -34582,194 +34583,196 @@
         <v>0</v>
       </c>
       <c r="G178" t="n">
-        <v>5063864</v>
+        <v>83978239</v>
       </c>
       <c r="H178" t="n">
-        <v>58371506</v>
+        <v>1590</v>
       </c>
       <c r="I178"/>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>1822</v>
+        <v>1811</v>
       </c>
       <c r="B179" t="s">
         <v>1834</v>
       </c>
       <c r="C179"/>
-      <c r="D179" t="n">
-        <v>5420642</v>
-      </c>
-      <c r="E179" t="n">
-        <v>0</v>
-      </c>
-      <c r="F179" t="n">
-        <v>0</v>
-      </c>
+      <c r="D179"/>
+      <c r="E179"/>
+      <c r="F179"/>
       <c r="G179" t="n">
-        <v>100382806</v>
+        <v>10920337</v>
       </c>
       <c r="H179" t="n">
-        <v>97904231</v>
+        <v>1960195</v>
       </c>
       <c r="I179"/>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>1822</v>
+        <v>1811</v>
       </c>
       <c r="B180" t="s">
         <v>1835</v>
       </c>
       <c r="C180" t="n">
-        <v>13617</v>
-      </c>
-      <c r="D180"/>
+        <v>44494</v>
+      </c>
+      <c r="D180" t="n">
+        <v>3089512</v>
+      </c>
       <c r="E180" t="n">
         <v>0</v>
       </c>
-      <c r="F180"/>
+      <c r="F180" t="n">
+        <v>0</v>
+      </c>
       <c r="G180" t="n">
-        <v>31561441</v>
+        <v>15693919</v>
       </c>
       <c r="H180" t="n">
-        <v>2300516</v>
+        <v>14215890</v>
       </c>
       <c r="I180"/>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>1822</v>
+        <v>1811</v>
       </c>
       <c r="B181" t="s">
         <v>1836</v>
       </c>
-      <c r="C181"/>
+      <c r="C181" t="n">
+        <v>1539</v>
+      </c>
       <c r="D181"/>
       <c r="E181" t="n">
         <v>0</v>
       </c>
       <c r="F181"/>
       <c r="G181" t="n">
-        <v>13999560</v>
+        <v>4847822</v>
       </c>
       <c r="H181" t="n">
-        <v>15591874</v>
+        <v>104295</v>
       </c>
       <c r="I181"/>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>1822</v>
+        <v>1811</v>
       </c>
       <c r="B182" t="s">
         <v>1837</v>
       </c>
-      <c r="C182"/>
-      <c r="D182" t="n">
-        <v>27110634</v>
-      </c>
-      <c r="E182" t="n">
-        <v>0</v>
-      </c>
-      <c r="F182" t="n">
-        <v>527924</v>
-      </c>
+      <c r="C182" t="n">
+        <v>39883</v>
+      </c>
+      <c r="D182"/>
+      <c r="E182"/>
+      <c r="F182"/>
       <c r="G182" t="n">
-        <v>19252804</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1661466</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182"/>
       <c r="I182"/>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>1822</v>
+        <v>1811</v>
       </c>
       <c r="B183" t="s">
         <v>1838</v>
       </c>
       <c r="C183"/>
       <c r="D183" t="n">
-        <v>4597</v>
+        <v>88065</v>
       </c>
       <c r="E183" t="n">
         <v>0</v>
       </c>
       <c r="F183"/>
       <c r="G183" t="n">
-        <v>32</v>
-      </c>
-      <c r="H183"/>
+        <v>19253912</v>
+      </c>
+      <c r="H183" t="n">
+        <v>11947697</v>
+      </c>
       <c r="I183"/>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>1822</v>
+        <v>1811</v>
       </c>
       <c r="B184" t="s">
         <v>1839</v>
       </c>
       <c r="C184"/>
-      <c r="D184" t="n">
-        <v>1542259</v>
-      </c>
+      <c r="D184"/>
       <c r="E184" t="n">
-        <v>4203</v>
+        <v>0</v>
       </c>
       <c r="F184"/>
       <c r="G184" t="n">
-        <v>16447409</v>
+        <v>44316668</v>
       </c>
       <c r="H184" t="n">
-        <v>55496680</v>
+        <v>152</v>
       </c>
       <c r="I184"/>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>1822</v>
+        <v>1811</v>
       </c>
       <c r="B185" t="s">
         <v>1840</v>
       </c>
       <c r="C185"/>
-      <c r="D185"/>
+      <c r="D185" t="n">
+        <v>2426610</v>
+      </c>
       <c r="E185" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>1138600</v>
+        <v>18298316</v>
       </c>
       <c r="H185" t="n">
-        <v>127485</v>
+        <v>267114</v>
       </c>
       <c r="I185"/>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>1822</v>
+        <v>1811</v>
       </c>
       <c r="B186" t="s">
         <v>1841</v>
       </c>
       <c r="C186"/>
-      <c r="D186"/>
+      <c r="D186" t="n">
+        <v>31496336</v>
+      </c>
       <c r="E186" t="n">
         <v>0</v>
       </c>
       <c r="F186"/>
-      <c r="G186"/>
-      <c r="H186"/>
+      <c r="G186" t="n">
+        <v>17907160</v>
+      </c>
+      <c r="H186" t="n">
+        <v>6896324</v>
+      </c>
       <c r="I186"/>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>1822</v>
+        <v>1811</v>
       </c>
       <c r="B187" t="s">
         <v>1842</v>
@@ -34777,823 +34780,576 @@
       <c r="C187"/>
       <c r="D187"/>
       <c r="E187"/>
-      <c r="F187" t="n">
-        <v>0</v>
-      </c>
+      <c r="F187"/>
       <c r="G187"/>
-      <c r="H187"/>
+      <c r="H187" t="n">
+        <v>92546</v>
+      </c>
       <c r="I187"/>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>1822</v>
+        <v>1811</v>
       </c>
       <c r="B188" t="s">
         <v>1843</v>
       </c>
       <c r="C188"/>
-      <c r="D188" t="n">
-        <v>86100501</v>
-      </c>
+      <c r="D188"/>
       <c r="E188" t="n">
         <v>0</v>
       </c>
-      <c r="F188" t="n">
-        <v>0</v>
-      </c>
+      <c r="F188"/>
       <c r="G188" t="n">
-        <v>100732746</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1388358</v>
-      </c>
+        <v>3384682</v>
+      </c>
+      <c r="H188"/>
       <c r="I188"/>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>1822</v>
+        <v>1811</v>
       </c>
       <c r="B189" t="s">
         <v>1844</v>
       </c>
       <c r="C189"/>
-      <c r="D189" t="n">
-        <v>960603</v>
-      </c>
+      <c r="D189"/>
       <c r="E189" t="n">
         <v>0</v>
       </c>
-      <c r="F189" t="n">
-        <v>0</v>
-      </c>
+      <c r="F189"/>
       <c r="G189" t="n">
-        <v>83978239</v>
+        <v>37031691</v>
       </c>
       <c r="H189" t="n">
-        <v>1590</v>
+        <v>5188</v>
       </c>
       <c r="I189"/>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>1822</v>
+        <v>1811</v>
       </c>
       <c r="B190" t="s">
         <v>1845</v>
       </c>
       <c r="C190"/>
-      <c r="D190"/>
-      <c r="E190"/>
+      <c r="D190" t="n">
+        <v>3696403</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0</v>
+      </c>
       <c r="F190"/>
       <c r="G190" t="n">
-        <v>10920337</v>
+        <v>38586453</v>
       </c>
       <c r="H190" t="n">
-        <v>1960195</v>
+        <v>2402917</v>
       </c>
       <c r="I190"/>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>1822</v>
+        <v>1811</v>
       </c>
       <c r="B191" t="s">
         <v>1846</v>
       </c>
-      <c r="C191" t="n">
-        <v>44494</v>
-      </c>
-      <c r="D191" t="n">
-        <v>3089512</v>
-      </c>
-      <c r="E191" t="n">
-        <v>0</v>
-      </c>
+      <c r="C191"/>
+      <c r="D191"/>
+      <c r="E191"/>
       <c r="F191" t="n">
         <v>0</v>
       </c>
-      <c r="G191" t="n">
-        <v>15693919</v>
-      </c>
-      <c r="H191" t="n">
-        <v>14215890</v>
-      </c>
+      <c r="G191"/>
+      <c r="H191"/>
       <c r="I191"/>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>1822</v>
+        <v>1811</v>
       </c>
       <c r="B192" t="s">
         <v>1847</v>
       </c>
-      <c r="C192" t="n">
-        <v>1539</v>
-      </c>
-      <c r="D192"/>
+      <c r="C192"/>
+      <c r="D192" t="n">
+        <v>8998129</v>
+      </c>
       <c r="E192" t="n">
         <v>0</v>
       </c>
-      <c r="F192"/>
+      <c r="F192" t="n">
+        <v>10</v>
+      </c>
       <c r="G192" t="n">
-        <v>4847822</v>
+        <v>2601851</v>
       </c>
       <c r="H192" t="n">
-        <v>104295</v>
+        <v>52949</v>
       </c>
       <c r="I192"/>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>1822</v>
+        <v>1811</v>
       </c>
       <c r="B193" t="s">
         <v>1848</v>
       </c>
-      <c r="C193" t="n">
-        <v>39883</v>
-      </c>
-      <c r="D193"/>
-      <c r="E193"/>
-      <c r="F193"/>
+      <c r="C193"/>
+      <c r="D193" t="n">
+        <v>8146566</v>
+      </c>
+      <c r="E193" t="n">
+        <v>25</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0</v>
+      </c>
       <c r="G193" t="n">
-        <v>0</v>
-      </c>
-      <c r="H193"/>
+        <v>38597575</v>
+      </c>
+      <c r="H193" t="n">
+        <v>3826410</v>
+      </c>
       <c r="I193"/>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>1822</v>
+        <v>1811</v>
       </c>
       <c r="B194" t="s">
         <v>1849</v>
       </c>
       <c r="C194"/>
       <c r="D194" t="n">
-        <v>88065</v>
+        <v>2799956</v>
       </c>
       <c r="E194" t="n">
         <v>0</v>
       </c>
-      <c r="F194"/>
+      <c r="F194" t="n">
+        <v>0</v>
+      </c>
       <c r="G194" t="n">
-        <v>19253912</v>
+        <v>5576430</v>
       </c>
       <c r="H194" t="n">
-        <v>11947697</v>
+        <v>4446122</v>
       </c>
       <c r="I194"/>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>1822</v>
+        <v>1811</v>
       </c>
       <c r="B195" t="s">
         <v>1850</v>
       </c>
       <c r="C195"/>
-      <c r="D195"/>
-      <c r="E195" t="n">
-        <v>0</v>
-      </c>
+      <c r="D195" t="n">
+        <v>80335955</v>
+      </c>
+      <c r="E195"/>
       <c r="F195"/>
-      <c r="G195" t="n">
-        <v>44316668</v>
-      </c>
-      <c r="H195" t="n">
-        <v>152</v>
-      </c>
+      <c r="G195"/>
+      <c r="H195"/>
       <c r="I195"/>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>1822</v>
+        <v>1811</v>
       </c>
       <c r="B196" t="s">
         <v>1851</v>
       </c>
-      <c r="C196"/>
+      <c r="C196" t="n">
+        <v>773091</v>
+      </c>
       <c r="D196" t="n">
-        <v>2426610</v>
+        <v>28205728</v>
       </c>
       <c r="E196" t="n">
         <v>0</v>
       </c>
-      <c r="F196" t="n">
-        <v>0</v>
-      </c>
+      <c r="F196"/>
       <c r="G196" t="n">
-        <v>18298316</v>
+        <v>922338</v>
       </c>
       <c r="H196" t="n">
-        <v>267114</v>
+        <v>381798</v>
       </c>
       <c r="I196"/>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>1822</v>
+        <v>1811</v>
       </c>
       <c r="B197" t="s">
         <v>1852</v>
       </c>
       <c r="C197"/>
-      <c r="D197" t="n">
-        <v>31496336</v>
-      </c>
+      <c r="D197"/>
       <c r="E197" t="n">
         <v>0</v>
       </c>
       <c r="F197"/>
       <c r="G197" t="n">
-        <v>17907160</v>
+        <v>21073680</v>
       </c>
       <c r="H197" t="n">
-        <v>6896324</v>
+        <v>744304</v>
       </c>
       <c r="I197"/>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>1822</v>
+        <v>1811</v>
       </c>
       <c r="B198" t="s">
         <v>1853</v>
       </c>
       <c r="C198"/>
       <c r="D198"/>
-      <c r="E198"/>
+      <c r="E198" t="n">
+        <v>0</v>
+      </c>
       <c r="F198"/>
-      <c r="G198"/>
+      <c r="G198" t="n">
+        <v>23511050</v>
+      </c>
       <c r="H198" t="n">
-        <v>92546</v>
+        <v>41809660</v>
       </c>
       <c r="I198"/>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>1822</v>
+        <v>1811</v>
       </c>
       <c r="B199" t="s">
         <v>1854</v>
       </c>
       <c r="C199"/>
       <c r="D199"/>
-      <c r="E199" t="n">
-        <v>0</v>
-      </c>
-      <c r="F199"/>
-      <c r="G199" t="n">
-        <v>3384682</v>
-      </c>
+      <c r="E199"/>
+      <c r="F199" t="n">
+        <v>0</v>
+      </c>
+      <c r="G199"/>
       <c r="H199"/>
       <c r="I199"/>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>1822</v>
+        <v>1811</v>
       </c>
       <c r="B200" t="s">
         <v>1855</v>
       </c>
       <c r="C200"/>
       <c r="D200"/>
-      <c r="E200" t="n">
-        <v>0</v>
-      </c>
+      <c r="E200"/>
       <c r="F200"/>
       <c r="G200" t="n">
-        <v>37031691</v>
-      </c>
-      <c r="H200" t="n">
-        <v>5188</v>
-      </c>
+        <v>8208905</v>
+      </c>
+      <c r="H200"/>
       <c r="I200"/>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>1822</v>
+        <v>1811</v>
       </c>
       <c r="B201" t="s">
         <v>1856</v>
       </c>
       <c r="C201"/>
-      <c r="D201" t="n">
-        <v>3696403</v>
-      </c>
+      <c r="D201"/>
       <c r="E201" t="n">
         <v>0</v>
       </c>
       <c r="F201"/>
       <c r="G201" t="n">
-        <v>38586453</v>
+        <v>19360826</v>
       </c>
       <c r="H201" t="n">
-        <v>2402917</v>
+        <v>1241947</v>
       </c>
       <c r="I201"/>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>1822</v>
+        <v>1857</v>
       </c>
       <c r="B202" t="s">
-        <v>1857</v>
-      </c>
-      <c r="C202"/>
-      <c r="D202"/>
-      <c r="E202"/>
+        <v>1858</v>
+      </c>
+      <c r="C202" t="n">
+        <v>5654420</v>
+      </c>
+      <c r="D202" t="n">
+        <v>157840</v>
+      </c>
+      <c r="E202" t="n">
+        <v>48312</v>
+      </c>
       <c r="F202" t="n">
         <v>0</v>
       </c>
-      <c r="G202"/>
-      <c r="H202"/>
+      <c r="G202" t="n">
+        <v>88400993</v>
+      </c>
+      <c r="H202" t="n">
+        <v>934500567</v>
+      </c>
       <c r="I202"/>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>1822</v>
+        <v>1857</v>
       </c>
       <c r="B203" t="s">
-        <v>1858</v>
-      </c>
-      <c r="C203"/>
+        <v>1859</v>
+      </c>
+      <c r="C203" t="n">
+        <v>1818583</v>
+      </c>
       <c r="D203" t="n">
-        <v>8998129</v>
+        <v>91600792</v>
       </c>
       <c r="E203" t="n">
-        <v>0</v>
+        <v>187214</v>
       </c>
       <c r="F203" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G203" t="n">
-        <v>2601851</v>
+        <v>266385820</v>
       </c>
       <c r="H203" t="n">
-        <v>52949</v>
+        <v>692323533</v>
       </c>
       <c r="I203"/>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>1822</v>
+        <v>1857</v>
       </c>
       <c r="B204" t="s">
-        <v>1859</v>
-      </c>
-      <c r="C204"/>
+        <v>1860</v>
+      </c>
+      <c r="C204" t="n">
+        <v>5581025</v>
+      </c>
       <c r="D204" t="n">
-        <v>8146566</v>
+        <v>74521711</v>
       </c>
       <c r="E204" t="n">
-        <v>25</v>
+        <v>8540</v>
       </c>
       <c r="F204" t="n">
         <v>0</v>
       </c>
       <c r="G204" t="n">
-        <v>38597575</v>
+        <v>217285560</v>
       </c>
       <c r="H204" t="n">
-        <v>3826410</v>
+        <v>1893781259</v>
       </c>
       <c r="I204"/>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>1822</v>
+        <v>1857</v>
       </c>
       <c r="B205" t="s">
-        <v>1860</v>
-      </c>
-      <c r="C205"/>
+        <v>1861</v>
+      </c>
+      <c r="C205" t="n">
+        <v>13378795</v>
+      </c>
       <c r="D205" t="n">
-        <v>2799956</v>
+        <v>84682577</v>
       </c>
       <c r="E205" t="n">
-        <v>0</v>
+        <v>167966</v>
       </c>
       <c r="F205" t="n">
         <v>0</v>
       </c>
       <c r="G205" t="n">
-        <v>5576430</v>
+        <v>501708283</v>
       </c>
       <c r="H205" t="n">
-        <v>4446122</v>
-      </c>
-      <c r="I205"/>
+        <v>3192238819</v>
+      </c>
+      <c r="I205" t="n">
+        <v>2510</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>1822</v>
+        <v>1857</v>
       </c>
       <c r="B206" t="s">
-        <v>1861</v>
-      </c>
-      <c r="C206"/>
+        <v>1862</v>
+      </c>
+      <c r="C206" t="n">
+        <v>317849</v>
+      </c>
       <c r="D206" t="n">
-        <v>80335955</v>
-      </c>
-      <c r="E206"/>
-      <c r="F206"/>
-      <c r="G206"/>
-      <c r="H206"/>
+        <v>143740914</v>
+      </c>
+      <c r="E206" t="n">
+        <v>305351</v>
+      </c>
+      <c r="F206" t="n">
+        <v>151795</v>
+      </c>
+      <c r="G206" t="n">
+        <v>863044817</v>
+      </c>
+      <c r="H206" t="n">
+        <v>1947206925</v>
+      </c>
       <c r="I206"/>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>1822</v>
+        <v>1857</v>
       </c>
       <c r="B207" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="C207" t="n">
-        <v>773091</v>
+        <v>28370478</v>
       </c>
       <c r="D207" t="n">
-        <v>28205728</v>
+        <v>586286585</v>
       </c>
       <c r="E207" t="n">
-        <v>0</v>
-      </c>
-      <c r="F207"/>
+        <v>1254</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0</v>
+      </c>
       <c r="G207" t="n">
-        <v>922338</v>
+        <v>1362651728</v>
       </c>
       <c r="H207" t="n">
-        <v>381798</v>
+        <v>4535149316</v>
       </c>
       <c r="I207"/>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>1822</v>
+        <v>1857</v>
       </c>
       <c r="B208" t="s">
-        <v>1863</v>
-      </c>
-      <c r="C208"/>
-      <c r="D208"/>
+        <v>1864</v>
+      </c>
+      <c r="C208" t="n">
+        <v>62122504</v>
+      </c>
+      <c r="D208" t="n">
+        <v>171663860</v>
+      </c>
       <c r="E208" t="n">
-        <v>0</v>
-      </c>
-      <c r="F208"/>
+        <v>38346</v>
+      </c>
+      <c r="F208" t="n">
+        <v>11</v>
+      </c>
       <c r="G208" t="n">
-        <v>21073680</v>
+        <v>285405389</v>
       </c>
       <c r="H208" t="n">
-        <v>744304</v>
+        <v>3118741500</v>
       </c>
       <c r="I208"/>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>1822</v>
+        <v>1857</v>
       </c>
       <c r="B209" t="s">
-        <v>1864</v>
-      </c>
-      <c r="C209"/>
-      <c r="D209"/>
+        <v>1865</v>
+      </c>
+      <c r="C209" t="n">
+        <v>34085857</v>
+      </c>
+      <c r="D209" t="n">
+        <v>162214036</v>
+      </c>
       <c r="E209" t="n">
-        <v>0</v>
+        <v>238461</v>
       </c>
       <c r="F209"/>
       <c r="G209" t="n">
-        <v>23511050</v>
+        <v>263569951</v>
       </c>
       <c r="H209" t="n">
-        <v>41809660</v>
+        <v>1693486664</v>
       </c>
       <c r="I209"/>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>1822</v>
+        <v>1857</v>
       </c>
       <c r="B210" t="s">
-        <v>1865</v>
-      </c>
-      <c r="C210"/>
-      <c r="D210"/>
-      <c r="E210"/>
+        <v>1866</v>
+      </c>
+      <c r="C210" t="n">
+        <v>28100654</v>
+      </c>
+      <c r="D210" t="n">
+        <v>79600257</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0</v>
+      </c>
       <c r="F210" t="n">
         <v>0</v>
       </c>
-      <c r="G210"/>
-      <c r="H210"/>
+      <c r="G210" t="n">
+        <v>369017658</v>
+      </c>
+      <c r="H210" t="n">
+        <v>2898457304</v>
+      </c>
       <c r="I210"/>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>1822</v>
+        <v>1857</v>
       </c>
       <c r="B211" t="s">
-        <v>1866</v>
-      </c>
-      <c r="C211"/>
-      <c r="D211"/>
-      <c r="E211"/>
-      <c r="F211"/>
+        <v>1867</v>
+      </c>
+      <c r="C211" t="n">
+        <v>3558019</v>
+      </c>
+      <c r="D211" t="n">
+        <v>10911828</v>
+      </c>
+      <c r="E211" t="n">
+        <v>545393</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0</v>
+      </c>
       <c r="G211" t="n">
-        <v>8208905</v>
-      </c>
-      <c r="H211"/>
+        <v>1149721849</v>
+      </c>
+      <c r="H211" t="n">
+        <v>7394611182</v>
+      </c>
       <c r="I211"/>
-    </row>
-    <row r="212">
-      <c r="A212" t="s">
-        <v>1822</v>
-      </c>
-      <c r="B212" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C212"/>
-      <c r="D212"/>
-      <c r="E212" t="n">
-        <v>0</v>
-      </c>
-      <c r="F212"/>
-      <c r="G212" t="n">
-        <v>19360826</v>
-      </c>
-      <c r="H212" t="n">
-        <v>1241947</v>
-      </c>
-      <c r="I212"/>
-    </row>
-    <row r="213">
-      <c r="A213" t="s">
-        <v>1868</v>
-      </c>
-      <c r="B213" t="s">
-        <v>1869</v>
-      </c>
-      <c r="C213" t="n">
-        <v>5654420</v>
-      </c>
-      <c r="D213" t="n">
-        <v>157840</v>
-      </c>
-      <c r="E213" t="n">
-        <v>48312</v>
-      </c>
-      <c r="F213" t="n">
-        <v>0</v>
-      </c>
-      <c r="G213" t="n">
-        <v>88400993</v>
-      </c>
-      <c r="H213" t="n">
-        <v>934500567</v>
-      </c>
-      <c r="I213"/>
-    </row>
-    <row r="214">
-      <c r="A214" t="s">
-        <v>1868</v>
-      </c>
-      <c r="B214" t="s">
-        <v>1870</v>
-      </c>
-      <c r="C214" t="n">
-        <v>1818583</v>
-      </c>
-      <c r="D214" t="n">
-        <v>91600792</v>
-      </c>
-      <c r="E214" t="n">
-        <v>187214</v>
-      </c>
-      <c r="F214" t="n">
-        <v>0</v>
-      </c>
-      <c r="G214" t="n">
-        <v>266385820</v>
-      </c>
-      <c r="H214" t="n">
-        <v>692323533</v>
-      </c>
-      <c r="I214"/>
-    </row>
-    <row r="215">
-      <c r="A215" t="s">
-        <v>1868</v>
-      </c>
-      <c r="B215" t="s">
-        <v>1871</v>
-      </c>
-      <c r="C215" t="n">
-        <v>5581025</v>
-      </c>
-      <c r="D215" t="n">
-        <v>74521711</v>
-      </c>
-      <c r="E215" t="n">
-        <v>8540</v>
-      </c>
-      <c r="F215" t="n">
-        <v>0</v>
-      </c>
-      <c r="G215" t="n">
-        <v>217285560</v>
-      </c>
-      <c r="H215" t="n">
-        <v>1893781259</v>
-      </c>
-      <c r="I215"/>
-    </row>
-    <row r="216">
-      <c r="A216" t="s">
-        <v>1868</v>
-      </c>
-      <c r="B216" t="s">
-        <v>1872</v>
-      </c>
-      <c r="C216" t="n">
-        <v>13378795</v>
-      </c>
-      <c r="D216" t="n">
-        <v>84682577</v>
-      </c>
-      <c r="E216" t="n">
-        <v>167966</v>
-      </c>
-      <c r="F216" t="n">
-        <v>0</v>
-      </c>
-      <c r="G216" t="n">
-        <v>501708283</v>
-      </c>
-      <c r="H216" t="n">
-        <v>3192238819</v>
-      </c>
-      <c r="I216" t="n">
-        <v>2510</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="s">
-        <v>1868</v>
-      </c>
-      <c r="B217" t="s">
-        <v>1873</v>
-      </c>
-      <c r="C217" t="n">
-        <v>317849</v>
-      </c>
-      <c r="D217" t="n">
-        <v>143740914</v>
-      </c>
-      <c r="E217" t="n">
-        <v>305351</v>
-      </c>
-      <c r="F217" t="n">
-        <v>151795</v>
-      </c>
-      <c r="G217" t="n">
-        <v>863044817</v>
-      </c>
-      <c r="H217" t="n">
-        <v>1947206925</v>
-      </c>
-      <c r="I217"/>
-    </row>
-    <row r="218">
-      <c r="A218" t="s">
-        <v>1868</v>
-      </c>
-      <c r="B218" t="s">
-        <v>1874</v>
-      </c>
-      <c r="C218" t="n">
-        <v>28370478</v>
-      </c>
-      <c r="D218" t="n">
-        <v>586286585</v>
-      </c>
-      <c r="E218" t="n">
-        <v>1254</v>
-      </c>
-      <c r="F218" t="n">
-        <v>0</v>
-      </c>
-      <c r="G218" t="n">
-        <v>1362651728</v>
-      </c>
-      <c r="H218" t="n">
-        <v>4535149316</v>
-      </c>
-      <c r="I218"/>
-    </row>
-    <row r="219">
-      <c r="A219" t="s">
-        <v>1868</v>
-      </c>
-      <c r="B219" t="s">
-        <v>1875</v>
-      </c>
-      <c r="C219" t="n">
-        <v>62122504</v>
-      </c>
-      <c r="D219" t="n">
-        <v>171663860</v>
-      </c>
-      <c r="E219" t="n">
-        <v>38346</v>
-      </c>
-      <c r="F219" t="n">
-        <v>11</v>
-      </c>
-      <c r="G219" t="n">
-        <v>285405389</v>
-      </c>
-      <c r="H219" t="n">
-        <v>3118741500</v>
-      </c>
-      <c r="I219"/>
-    </row>
-    <row r="220">
-      <c r="A220" t="s">
-        <v>1868</v>
-      </c>
-      <c r="B220" t="s">
-        <v>1876</v>
-      </c>
-      <c r="C220" t="n">
-        <v>34085857</v>
-      </c>
-      <c r="D220" t="n">
-        <v>162214036</v>
-      </c>
-      <c r="E220" t="n">
-        <v>238461</v>
-      </c>
-      <c r="F220"/>
-      <c r="G220" t="n">
-        <v>263569951</v>
-      </c>
-      <c r="H220" t="n">
-        <v>1693486664</v>
-      </c>
-      <c r="I220"/>
-    </row>
-    <row r="221">
-      <c r="A221" t="s">
-        <v>1868</v>
-      </c>
-      <c r="B221" t="s">
-        <v>1877</v>
-      </c>
-      <c r="C221" t="n">
-        <v>28100654</v>
-      </c>
-      <c r="D221" t="n">
-        <v>79600257</v>
-      </c>
-      <c r="E221" t="n">
-        <v>0</v>
-      </c>
-      <c r="F221" t="n">
-        <v>0</v>
-      </c>
-      <c r="G221" t="n">
-        <v>369017658</v>
-      </c>
-      <c r="H221" t="n">
-        <v>2898457304</v>
-      </c>
-      <c r="I221"/>
-    </row>
-    <row r="222">
-      <c r="A222" t="s">
-        <v>1868</v>
-      </c>
-      <c r="B222" t="s">
-        <v>1878</v>
-      </c>
-      <c r="C222" t="n">
-        <v>3558019</v>
-      </c>
-      <c r="D222" t="n">
-        <v>10911828</v>
-      </c>
-      <c r="E222" t="n">
-        <v>545393</v>
-      </c>
-      <c r="F222" t="n">
-        <v>0</v>
-      </c>
-      <c r="G222" t="n">
-        <v>1149721849</v>
-      </c>
-      <c r="H222" t="n">
-        <v>7394611182</v>
-      </c>
-      <c r="I222"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35622,13 +35378,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1879</v>
+        <v>1868</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>1880</v>
+        <v>1869</v>
       </c>
     </row>
   </sheetData>
